--- a/txsb_top_timing_bdlmax_tran_channel_a_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_channel_a_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="133">
   <si>
     <t>Process</t>
   </si>
@@ -376,19 +376,19 @@
     <t>rcbest_ccbest_t</t>
   </si>
   <si>
+    <t>tsmc2ff (6)</t>
+  </si>
+  <si>
+    <t>tsmc2ff (7)</t>
+  </si>
+  <si>
+    <t>tsmc2ff (8)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (7)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (8)</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Max</t>
@@ -1206,7 +1206,7 @@
         <v>8.86694</v>
       </c>
       <c r="BH2" s="3">
-        <v>7.91532</v>
+        <v>7.915330000000001</v>
       </c>
       <c r="BI2">
         <v>50.7503</v>
@@ -2229,187 +2229,187 @@
       <c r="Q7" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BK7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ7" s="4" t="s">
-        <v>120</v>
+      <c r="R7">
+        <v>158.03</v>
+      </c>
+      <c r="S7">
+        <v>156.134</v>
+      </c>
+      <c r="T7">
+        <v>157.082</v>
+      </c>
+      <c r="U7" s="2">
+        <v>66.60769999999999</v>
+      </c>
+      <c r="V7" s="3">
+        <v>22.4674</v>
+      </c>
+      <c r="W7" s="3">
+        <v>21.5695</v>
+      </c>
+      <c r="X7">
+        <v>20.5631</v>
+      </c>
+      <c r="Y7">
+        <v>21.4191</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>3080.54</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>3080.27</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>3080.4</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>2.91834</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>16.6844</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>16.7678</v>
+      </c>
+      <c r="AF7">
+        <v>37.0645</v>
+      </c>
+      <c r="AG7">
+        <v>36.8802</v>
+      </c>
+      <c r="AH7">
+        <v>80.5361</v>
+      </c>
+      <c r="AI7">
+        <v>80.26990000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>80.40300000000001</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>24.9913</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>16.6844</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>16.7678</v>
+      </c>
+      <c r="AN7">
+        <v>37.0645</v>
+      </c>
+      <c r="AO7">
+        <v>36.8802</v>
+      </c>
+      <c r="AP7">
+        <v>136.69</v>
+      </c>
+      <c r="AQ7">
+        <v>134.424</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>66.5971</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>56.3596</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>55.3822</v>
+      </c>
+      <c r="AU7">
+        <v>8.197369999999999</v>
+      </c>
+      <c r="AV7">
+        <v>8.342029999999999</v>
+      </c>
+      <c r="AW7">
+        <v>55.9559</v>
+      </c>
+      <c r="AX7">
+        <v>55.65600000000001</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>66.6568</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>6.81261</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>6.23398</v>
+      </c>
+      <c r="BB7">
+        <v>68.0796</v>
+      </c>
+      <c r="BC7">
+        <v>74.39870000000001</v>
+      </c>
+      <c r="BD7">
+        <v>69.6433</v>
+      </c>
+      <c r="BE7">
+        <v>67.08029999999999</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>66.5782</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>8.231389999999999</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>7.07744</v>
+      </c>
+      <c r="BI7">
+        <v>56.3453</v>
+      </c>
+      <c r="BJ7">
+        <v>65.5322</v>
+      </c>
+      <c r="BK7">
+        <v>84.672</v>
+      </c>
+      <c r="BL7">
+        <v>83.46759999999999</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>66.62569999999999</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>4.99001</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>2.25556</v>
+      </c>
+      <c r="BP7">
+        <v>92.5851</v>
+      </c>
+      <c r="BQ7">
+        <v>204.827</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BU7" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:76">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
@@ -2459,187 +2459,187 @@
       <c r="Q8" t="s">
         <v>119</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BF8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BN8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>120</v>
+      <c r="R8">
+        <v>144.864</v>
+      </c>
+      <c r="S8">
+        <v>145.32</v>
+      </c>
+      <c r="T8">
+        <v>145.092</v>
+      </c>
+      <c r="U8" s="2">
+        <v>66.6861</v>
+      </c>
+      <c r="V8" s="3">
+        <v>19.4964</v>
+      </c>
+      <c r="W8" s="3">
+        <v>18.4374</v>
+      </c>
+      <c r="X8">
+        <v>23.6967</v>
+      </c>
+      <c r="Y8">
+        <v>25.0578</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>3071.81</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>3072.14</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>3071.98</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0.158738</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>15.5356</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>14.4731</v>
+      </c>
+      <c r="AF8">
+        <v>39.8054</v>
+      </c>
+      <c r="AG8">
+        <v>42.7277</v>
+      </c>
+      <c r="AH8">
+        <v>71.80930000000001</v>
+      </c>
+      <c r="AI8">
+        <v>72.1427</v>
+      </c>
+      <c r="AJ8">
+        <v>71.976</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>25.0029</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>15.5356</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>14.4731</v>
+      </c>
+      <c r="AN8">
+        <v>39.8054</v>
+      </c>
+      <c r="AO8">
+        <v>42.7277</v>
+      </c>
+      <c r="AP8">
+        <v>122.897</v>
+      </c>
+      <c r="AQ8">
+        <v>123.128</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>66.6677</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>53.3174</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>52.1393</v>
+      </c>
+      <c r="AU8">
+        <v>8.66508</v>
+      </c>
+      <c r="AV8">
+        <v>8.86088</v>
+      </c>
+      <c r="AW8">
+        <v>48.81930000000001</v>
+      </c>
+      <c r="AX8">
+        <v>49.2753</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>66.6797</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>4.80107</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>4.64528</v>
+      </c>
+      <c r="BB8">
+        <v>96.6035</v>
+      </c>
+      <c r="BC8">
+        <v>99.8432</v>
+      </c>
+      <c r="BD8">
+        <v>61.39360000000001</v>
+      </c>
+      <c r="BE8">
+        <v>59.8957</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>66.613</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>7.032100000000001</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>6.275840000000001</v>
+      </c>
+      <c r="BI8">
+        <v>65.9547</v>
+      </c>
+      <c r="BJ8">
+        <v>73.9025</v>
+      </c>
+      <c r="BK8">
+        <v>76.2842</v>
+      </c>
+      <c r="BL8">
+        <v>77.24169999999999</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>66.6935</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>4.54687</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>2.03414</v>
+      </c>
+      <c r="BP8">
+        <v>101.608</v>
+      </c>
+      <c r="BQ8">
+        <v>227.123</v>
       </c>
       <c r="BR8" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BS8" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BT8" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BU8" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BV8" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BW8" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:76">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
@@ -2689,187 +2689,187 @@
       <c r="Q9" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BK9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BN9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
-        <v>120</v>
+      <c r="R9">
+        <v>167.319</v>
+      </c>
+      <c r="S9">
+        <v>165.397</v>
+      </c>
+      <c r="T9">
+        <v>166.358</v>
+      </c>
+      <c r="U9" s="2">
+        <v>66.6309</v>
+      </c>
+      <c r="V9" s="3">
+        <v>23.759</v>
+      </c>
+      <c r="W9" s="3">
+        <v>22.9557</v>
+      </c>
+      <c r="X9">
+        <v>17.425</v>
+      </c>
+      <c r="Y9">
+        <v>18.0347</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>3084.55</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>3084.76</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>3084.66</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0.174961</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>18.572</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>17.8547</v>
+      </c>
+      <c r="AF9">
+        <v>29.7222</v>
+      </c>
+      <c r="AG9">
+        <v>30.9162</v>
+      </c>
+      <c r="AH9">
+        <v>84.5523</v>
+      </c>
+      <c r="AI9">
+        <v>84.76480000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>84.6585</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>25.0028</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>18.572</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>17.8547</v>
+      </c>
+      <c r="AN9">
+        <v>29.7222</v>
+      </c>
+      <c r="AO9">
+        <v>30.9162</v>
+      </c>
+      <c r="AP9">
+        <v>146.414</v>
+      </c>
+      <c r="AQ9">
+        <v>144.248</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>66.6159</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>57.4108</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>56.3886</v>
+      </c>
+      <c r="AU9">
+        <v>7.21118</v>
+      </c>
+      <c r="AV9">
+        <v>7.34191</v>
+      </c>
+      <c r="AW9">
+        <v>58.0728</v>
+      </c>
+      <c r="AX9">
+        <v>58.34670000000001</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>66.6778</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>6.54433</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>6.448370000000001</v>
+      </c>
+      <c r="BB9">
+        <v>63.2608</v>
+      </c>
+      <c r="BC9">
+        <v>64.2022</v>
+      </c>
+      <c r="BD9">
+        <v>73.07140000000001</v>
+      </c>
+      <c r="BE9">
+        <v>70.73990000000001</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>66.59269999999999</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>9.47725</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>7.79086</v>
+      </c>
+      <c r="BI9">
+        <v>43.6836</v>
+      </c>
+      <c r="BJ9">
+        <v>53.1392</v>
+      </c>
+      <c r="BK9">
+        <v>90.05500000000001</v>
+      </c>
+      <c r="BL9">
+        <v>89.81440000000001</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>66.6683</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>5.57846</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>2.44994</v>
+      </c>
+      <c r="BP9">
+        <v>74.214</v>
+      </c>
+      <c r="BQ9">
+        <v>168.984</v>
       </c>
       <c r="BR9" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BS9" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BU9" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BV9" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BW9" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BX9" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:76">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -2919,182 +2919,182 @@
       <c r="Q10" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BK10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BN10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ10" s="4" t="s">
-        <v>120</v>
+      <c r="R10">
+        <v>157.222</v>
+      </c>
+      <c r="S10">
+        <v>157.573</v>
+      </c>
+      <c r="T10">
+        <v>157.397</v>
+      </c>
+      <c r="U10" s="2">
+        <v>66.7209</v>
+      </c>
+      <c r="V10" s="3">
+        <v>20.8389</v>
+      </c>
+      <c r="W10" s="3">
+        <v>19.472</v>
+      </c>
+      <c r="X10">
+        <v>19.8667</v>
+      </c>
+      <c r="Y10">
+        <v>21.2613</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>3078.4</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>3078.09</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>3078.25</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0.209403</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>16.798</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>15.7568</v>
+      </c>
+      <c r="AF10">
+        <v>32.8611</v>
+      </c>
+      <c r="AG10">
+        <v>35.0326</v>
+      </c>
+      <c r="AH10">
+        <v>78.40299999999999</v>
+      </c>
+      <c r="AI10">
+        <v>78.0936</v>
+      </c>
+      <c r="AJ10">
+        <v>78.2483</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>24.9759</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>16.798</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>15.7568</v>
+      </c>
+      <c r="AN10">
+        <v>32.8611</v>
+      </c>
+      <c r="AO10">
+        <v>35.0326</v>
+      </c>
+      <c r="AP10">
+        <v>135.601</v>
+      </c>
+      <c r="AQ10">
+        <v>135.63</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>66.70059999999999</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>54.5353</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>53.3176</v>
+      </c>
+      <c r="AU10">
+        <v>7.59141</v>
+      </c>
+      <c r="AV10">
+        <v>7.76479</v>
+      </c>
+      <c r="AW10">
+        <v>52.8177</v>
+      </c>
+      <c r="AX10">
+        <v>52.911</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>66.6789</v>
+      </c>
+      <c r="AZ10" s="3">
+        <v>4.92349</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>4.784809999999999</v>
+      </c>
+      <c r="BB10">
+        <v>84.0868</v>
+      </c>
+      <c r="BC10">
+        <v>86.52370000000001</v>
+      </c>
+      <c r="BD10">
+        <v>66.7347</v>
+      </c>
+      <c r="BE10">
+        <v>64.78040000000001</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>66.6138</v>
+      </c>
+      <c r="BG10" s="3">
+        <v>7.64858</v>
+      </c>
+      <c r="BH10" s="3">
+        <v>7.00314</v>
+      </c>
+      <c r="BI10">
+        <v>54.1277</v>
+      </c>
+      <c r="BJ10">
+        <v>59.1164</v>
+      </c>
+      <c r="BK10">
+        <v>83.75980000000001</v>
+      </c>
+      <c r="BL10">
+        <v>85.4637</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>66.73560000000001</v>
+      </c>
+      <c r="BN10" s="3">
+        <v>5.01274</v>
+      </c>
+      <c r="BO10" s="3">
+        <v>2.10102</v>
+      </c>
+      <c r="BP10">
+        <v>82.5896</v>
+      </c>
+      <c r="BQ10">
+        <v>197.047</v>
       </c>
       <c r="BR10" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BS10" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BU10" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BV10" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BW10" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="BX10" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:76" s="1" customFormat="1">
@@ -3329,25 +3329,25 @@
     </row>
     <row r="12" spans="1:76" s="1" customFormat="1">
       <c r="Q12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" s="1">
-        <v>174.791</v>
+        <v>144.864</v>
       </c>
       <c r="S12" s="1">
-        <v>175.359</v>
+        <v>145.32</v>
       </c>
       <c r="T12" s="1">
-        <v>175.075</v>
+        <v>145.092</v>
       </c>
       <c r="U12" s="2">
-        <v>66.6337</v>
+        <v>66.60769999999999</v>
       </c>
       <c r="V12" s="3">
-        <v>24.911</v>
+        <v>19.4964</v>
       </c>
       <c r="W12" s="3">
-        <v>22.9383</v>
+        <v>18.4374</v>
       </c>
       <c r="X12" s="1">
         <v>10.8323</v>
@@ -3356,22 +3356,22 @@
         <v>11.9835</v>
       </c>
       <c r="Z12" s="2">
-        <v>3089.35</v>
+        <v>3071.81</v>
       </c>
       <c r="AA12" s="2">
-        <v>3089.21</v>
+        <v>3072.14</v>
       </c>
       <c r="AB12" s="2">
-        <v>3089.28</v>
+        <v>3071.98</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.246541</v>
+        <v>0.158738</v>
       </c>
       <c r="AD12" s="3">
-        <v>19.8024</v>
+        <v>15.5356</v>
       </c>
       <c r="AE12" s="3">
-        <v>19.0605</v>
+        <v>14.4731</v>
       </c>
       <c r="AF12" s="1">
         <v>20.006</v>
@@ -3380,22 +3380,22 @@
         <v>19.9984</v>
       </c>
       <c r="AH12" s="1">
-        <v>89.3523</v>
+        <v>71.80930000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>89.2105</v>
+        <v>72.1427</v>
       </c>
       <c r="AJ12" s="1">
-        <v>89.28139999999999</v>
+        <v>71.976</v>
       </c>
       <c r="AK12" s="3">
-        <v>24.9805</v>
+        <v>24.9759</v>
       </c>
       <c r="AL12" s="3">
-        <v>19.8024</v>
+        <v>15.5356</v>
       </c>
       <c r="AM12" s="3">
-        <v>19.0605</v>
+        <v>14.4731</v>
       </c>
       <c r="AN12" s="1">
         <v>20.006</v>
@@ -3404,19 +3404,19 @@
         <v>19.9984</v>
       </c>
       <c r="AP12" s="1">
-        <v>154.479</v>
+        <v>122.897</v>
       </c>
       <c r="AQ12" s="1">
-        <v>154.24</v>
+        <v>123.128</v>
       </c>
       <c r="AR12" s="2">
         <v>66.58620000000001</v>
       </c>
       <c r="AS12" s="2">
-        <v>57.8166</v>
+        <v>53.3174</v>
       </c>
       <c r="AT12" s="2">
-        <v>56.5898</v>
+        <v>52.1393</v>
       </c>
       <c r="AU12" s="1">
         <v>6.16658</v>
@@ -3425,19 +3425,19 @@
         <v>6.41504</v>
       </c>
       <c r="AW12" s="1">
-        <v>59.2665</v>
+        <v>48.81930000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>59.2787</v>
+        <v>49.2753</v>
       </c>
       <c r="AY12" s="2">
-        <v>66.66759999999999</v>
+        <v>66.6568</v>
       </c>
       <c r="AZ12" s="3">
-        <v>4.901000000000001</v>
+        <v>4.80107</v>
       </c>
       <c r="BA12" s="3">
-        <v>4.74865</v>
+        <v>4.64528</v>
       </c>
       <c r="BB12" s="1">
         <v>55.0197</v>
@@ -3446,19 +3446,19 @@
         <v>57.6879</v>
       </c>
       <c r="BD12" s="1">
-        <v>75.6216</v>
+        <v>61.39360000000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>73.0145</v>
+        <v>59.8957</v>
       </c>
       <c r="BF12" s="2">
         <v>66.51690000000001</v>
       </c>
       <c r="BG12" s="3">
-        <v>8.86694</v>
+        <v>7.032100000000001</v>
       </c>
       <c r="BH12" s="3">
-        <v>7.91532</v>
+        <v>6.275840000000001</v>
       </c>
       <c r="BI12" s="1">
         <v>32.5543</v>
@@ -3467,19 +3467,19 @@
         <v>36.1133</v>
       </c>
       <c r="BK12" s="1">
-        <v>93.798</v>
+        <v>76.2842</v>
       </c>
       <c r="BL12" s="1">
-        <v>95.2681</v>
+        <v>77.24169999999999</v>
       </c>
       <c r="BM12" s="2">
-        <v>66.6961</v>
+        <v>66.62569999999999</v>
       </c>
       <c r="BN12" s="3">
-        <v>5.31449</v>
+        <v>4.54687</v>
       </c>
       <c r="BO12" s="3">
-        <v>2.27288</v>
+        <v>2.03414</v>
       </c>
       <c r="BP12" s="1">
         <v>55.3152</v>
@@ -3488,25 +3488,25 @@
         <v>121.847</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:76" s="1" customFormat="1">
@@ -3523,7 +3523,7 @@
         <v>235.231</v>
       </c>
       <c r="U13" s="2">
-        <v>66.7081</v>
+        <v>66.7209</v>
       </c>
       <c r="V13" s="1">
         <v>38.2189</v>
@@ -3532,10 +3532,10 @@
         <v>34.5475</v>
       </c>
       <c r="X13" s="1">
-        <v>18.0643</v>
+        <v>23.6967</v>
       </c>
       <c r="Y13" s="1">
-        <v>19.6178</v>
+        <v>25.0578</v>
       </c>
       <c r="Z13" s="2">
         <v>3115.94</v>
@@ -3556,10 +3556,10 @@
         <v>27.6021</v>
       </c>
       <c r="AF13" s="1">
-        <v>30.2993</v>
+        <v>39.8054</v>
       </c>
       <c r="AG13" s="1">
-        <v>31.4787</v>
+        <v>42.7277</v>
       </c>
       <c r="AH13" s="1">
         <v>115.944</v>
@@ -3580,10 +3580,10 @@
         <v>27.6021</v>
       </c>
       <c r="AN13" s="1">
-        <v>30.2993</v>
+        <v>39.8054</v>
       </c>
       <c r="AO13" s="1">
-        <v>31.4787</v>
+        <v>42.7277</v>
       </c>
       <c r="AP13" s="1">
         <v>218.609</v>
@@ -3592,7 +3592,7 @@
         <v>217.154</v>
       </c>
       <c r="AR13" s="2">
-        <v>66.6656</v>
+        <v>66.70059999999999</v>
       </c>
       <c r="AS13" s="2">
         <v>67.1361</v>
@@ -3601,10 +3601,10 @@
         <v>64.5359</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.78323</v>
+        <v>8.66508</v>
       </c>
       <c r="AV13" s="1">
-        <v>7.95196</v>
+        <v>8.86088</v>
       </c>
       <c r="AW13" s="1">
         <v>72.75230000000001</v>
@@ -3622,10 +3622,10 @@
         <v>7.176550000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>94.6337</v>
+        <v>96.6035</v>
       </c>
       <c r="BC13" s="1">
-        <v>97.6699</v>
+        <v>99.8432</v>
       </c>
       <c r="BD13" s="1">
         <v>96.9418</v>
@@ -3634,7 +3634,7 @@
         <v>93.4235</v>
       </c>
       <c r="BF13" s="2">
-        <v>66.57640000000001</v>
+        <v>66.6138</v>
       </c>
       <c r="BG13" s="3">
         <v>12.7172</v>
@@ -3643,10 +3643,10 @@
         <v>11.4639</v>
       </c>
       <c r="BI13" s="1">
-        <v>50.7503</v>
+        <v>65.9547</v>
       </c>
       <c r="BJ13" s="1">
-        <v>56.8517</v>
+        <v>73.9025</v>
       </c>
       <c r="BK13" s="1">
         <v>126.282</v>
@@ -3664,31 +3664,31 @@
         <v>3.39771</v>
       </c>
       <c r="BP13" s="1">
-        <v>84.6742</v>
+        <v>101.608</v>
       </c>
       <c r="BQ13" s="1">
-        <v>197.987</v>
+        <v>227.123</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:76" s="1" customFormat="1">
@@ -3980,181 +3980,181 @@
         <v>130</v>
       </c>
       <c r="R18" s="1">
-        <v>209.5104</v>
+        <v>186.1096666666667</v>
       </c>
       <c r="S18" s="1">
-        <v>209.4314</v>
+        <v>185.7312222222222</v>
       </c>
       <c r="T18" s="1">
-        <v>209.4708</v>
+        <v>185.9203333333334</v>
       </c>
       <c r="U18" s="1">
-        <v>66.6631</v>
+        <v>66.66234444444444</v>
       </c>
       <c r="V18" s="1">
-        <v>31.84622</v>
+        <v>27.31031111111111</v>
       </c>
       <c r="W18" s="1">
-        <v>28.5322</v>
+        <v>25.01062222222222</v>
       </c>
       <c r="X18" s="1">
-        <v>14.1864</v>
+        <v>16.94261111111111</v>
       </c>
       <c r="Y18" s="1">
-        <v>15.80104</v>
+        <v>18.30867777777778</v>
       </c>
       <c r="Z18" s="1">
-        <v>3105.064</v>
+        <v>3093.402222222222</v>
       </c>
       <c r="AA18" s="1">
-        <v>3105.31</v>
+        <v>3093.534444444444</v>
       </c>
       <c r="AB18" s="1">
-        <v>3105.188</v>
+        <v>3093.47</v>
       </c>
       <c r="AC18" s="1">
-        <v>11.8409782</v>
+        <v>6.96292588888889</v>
       </c>
       <c r="AD18" s="1">
-        <v>24.44298</v>
+        <v>21.08943333333333</v>
       </c>
       <c r="AE18" s="1">
-        <v>23.67914</v>
+        <v>20.3609</v>
       </c>
       <c r="AF18" s="1">
-        <v>24.53356</v>
+        <v>29.12455555555556</v>
       </c>
       <c r="AG18" s="1">
-        <v>25.3339</v>
+        <v>30.24735555555556</v>
       </c>
       <c r="AH18" s="1">
-        <v>105.06464</v>
+        <v>93.40265555555555</v>
       </c>
       <c r="AI18" s="1">
-        <v>105.30958</v>
+        <v>93.53543333333334</v>
       </c>
       <c r="AJ18" s="1">
-        <v>105.18732</v>
+        <v>93.46915555555556</v>
       </c>
       <c r="AK18" s="1">
-        <v>24.9956</v>
+        <v>24.99454444444445</v>
       </c>
       <c r="AL18" s="1">
-        <v>24.44298</v>
+        <v>21.08943333333333</v>
       </c>
       <c r="AM18" s="1">
-        <v>23.67914</v>
+        <v>20.3609</v>
       </c>
       <c r="AN18" s="1">
-        <v>24.53356</v>
+        <v>29.12455555555556</v>
       </c>
       <c r="AO18" s="1">
-        <v>25.3339</v>
+        <v>30.24735555555556</v>
       </c>
       <c r="AP18" s="1">
-        <v>192.432</v>
+        <v>167.0846666666667</v>
       </c>
       <c r="AQ18" s="1">
-        <v>190.7648</v>
+        <v>165.6948888888889</v>
       </c>
       <c r="AR18" s="1">
-        <v>66.61626000000001</v>
+        <v>66.62917777777778</v>
       </c>
       <c r="AS18" s="1">
-        <v>62.85724</v>
+        <v>59.54547777777778</v>
       </c>
       <c r="AT18" s="1">
-        <v>60.41172</v>
+        <v>57.69847777777778</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.036663999999999</v>
+        <v>7.427595555555554</v>
       </c>
       <c r="AV18" s="1">
-        <v>7.314852</v>
+        <v>7.653763333333334</v>
       </c>
       <c r="AW18" s="1">
-        <v>66.62934</v>
+        <v>60.97915555555556</v>
       </c>
       <c r="AX18" s="1">
-        <v>67.00502</v>
+        <v>61.24601111111112</v>
       </c>
       <c r="AY18" s="1">
-        <v>66.67942000000001</v>
+        <v>66.67670000000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.957240000000001</v>
+        <v>5.87418888888889</v>
       </c>
       <c r="BA18" s="1">
-        <v>5.762234</v>
+        <v>5.658178888888889</v>
       </c>
       <c r="BB18" s="1">
-        <v>76.11824000000001</v>
+        <v>76.95798888888891</v>
       </c>
       <c r="BC18" s="1">
-        <v>78.71208</v>
+        <v>79.83646666666667</v>
       </c>
       <c r="BD18" s="1">
-        <v>87.88588</v>
+        <v>78.91915555555556</v>
       </c>
       <c r="BE18" s="1">
-        <v>84.54518</v>
+        <v>76.1358</v>
       </c>
       <c r="BF18" s="1">
-        <v>66.55052000000001</v>
+        <v>66.57225555555556</v>
       </c>
       <c r="BG18" s="1">
-        <v>10.964208</v>
+        <v>9.69004</v>
       </c>
       <c r="BH18" s="1">
-        <v>9.908028</v>
+        <v>8.631936666666668</v>
       </c>
       <c r="BI18" s="1">
-        <v>40.93872</v>
+        <v>47.20054444444444</v>
       </c>
       <c r="BJ18" s="1">
-        <v>45.47586</v>
+        <v>53.22995555555556</v>
       </c>
       <c r="BK18" s="1">
-        <v>111.9458</v>
+        <v>99.38888888888891</v>
       </c>
       <c r="BL18" s="1">
-        <v>113.58522</v>
+        <v>100.4348333333333</v>
       </c>
       <c r="BM18" s="1">
-        <v>66.71112000000001</v>
+        <v>66.69763333333334</v>
       </c>
       <c r="BN18" s="1">
-        <v>6.519906000000001</v>
+        <v>5.858623333333333</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.91011</v>
+        <v>2.599023333333333</v>
       </c>
       <c r="BP18" s="1">
-        <v>69.11395999999999</v>
+        <v>77.39627777777777</v>
       </c>
       <c r="BQ18" s="1">
-        <v>155.1418</v>
+        <v>174.8544444444445</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="17:76" s="1" customFormat="1">
@@ -4162,181 +4162,181 @@
         <v>131</v>
       </c>
       <c r="R19" s="1">
-        <v>21.72272392311793</v>
+        <v>31.22430394918534</v>
       </c>
       <c r="S19" s="1">
-        <v>21.85025690100692</v>
+        <v>31.46618870321243</v>
       </c>
       <c r="T19" s="1">
-        <v>21.78356442274772</v>
+        <v>31.34150336392802</v>
       </c>
       <c r="U19" s="1">
-        <v>0.0295219918027218</v>
+        <v>0.03701117282092407</v>
       </c>
       <c r="V19" s="1">
-        <v>4.512090574179558</v>
+        <v>6.179438317237516</v>
       </c>
       <c r="W19" s="1">
-        <v>3.987368248857885</v>
+        <v>5.071167868729994</v>
       </c>
       <c r="X19" s="1">
-        <v>2.564406498197975</v>
+        <v>3.92106920323312</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.696639248101236</v>
+        <v>3.827081442032638</v>
       </c>
       <c r="Z19" s="1">
-        <v>10.14812810325143</v>
+        <v>15.38396407358267</v>
       </c>
       <c r="AA19" s="1">
-        <v>10.26513906384126</v>
+        <v>15.52551098540786</v>
       </c>
       <c r="AB19" s="1">
-        <v>10.20675736950773</v>
+        <v>15.45371799923881</v>
       </c>
       <c r="AC19" s="1">
-        <v>23.04834223692069</v>
+        <v>18.04146322497839</v>
       </c>
       <c r="AD19" s="1">
-        <v>2.916059915296667</v>
+        <v>4.393829731440317</v>
       </c>
       <c r="AE19" s="1">
-        <v>2.905664996932716</v>
+        <v>4.37573308854896</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.986010838720838</v>
+        <v>6.465890950744034</v>
       </c>
       <c r="AG19" s="1">
-        <v>4.117277742878175</v>
+        <v>6.900641256049423</v>
       </c>
       <c r="AH19" s="1">
-        <v>10.14818932472192</v>
+        <v>15.38425549790081</v>
       </c>
       <c r="AI19" s="1">
-        <v>10.26505375074091</v>
+        <v>15.52419949992054</v>
       </c>
       <c r="AJ19" s="1">
-        <v>10.20522515075488</v>
+        <v>15.45348663830421</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.008630179604156674</v>
+        <v>0.009854960523187604</v>
       </c>
       <c r="AL19" s="1">
-        <v>2.916059915296667</v>
+        <v>4.393829731440317</v>
       </c>
       <c r="AM19" s="1">
-        <v>2.905664996932716</v>
+        <v>4.37573308854896</v>
       </c>
       <c r="AN19" s="1">
-        <v>3.986010838720838</v>
+        <v>6.465890950744034</v>
       </c>
       <c r="AO19" s="1">
-        <v>4.117277742878175</v>
+        <v>6.900641256049423</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.74148359306974</v>
+        <v>33.87166978464451</v>
       </c>
       <c r="AQ19" s="1">
-        <v>23.25645766147545</v>
+        <v>33.33415238808539</v>
       </c>
       <c r="AR19" s="1">
-        <v>0.02909485177827661</v>
+        <v>0.03779664234875042</v>
       </c>
       <c r="AS19" s="1">
-        <v>3.298241386314833</v>
+        <v>4.568349165673106</v>
       </c>
       <c r="AT19" s="1">
-        <v>2.724672786519511</v>
+        <v>3.816704453314485</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.6384311454996536</v>
+        <v>0.7453336578578766</v>
       </c>
       <c r="AV19" s="1">
-        <v>0.6174757084258455</v>
+        <v>0.7087631468817898</v>
       </c>
       <c r="AW19" s="1">
-        <v>4.913534797922979</v>
+        <v>7.662959141525639</v>
       </c>
       <c r="AX19" s="1">
-        <v>5.109698343503264</v>
+        <v>7.808830945288723</v>
       </c>
       <c r="AY19" s="1">
-        <v>0.007578495892989055</v>
+        <v>0.009038313510335728</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.9042925049783391</v>
+        <v>0.9133788264636412</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.8699381262273773</v>
+        <v>0.8552313095095575</v>
       </c>
       <c r="BB19" s="1">
-        <v>13.9690526501406</v>
+        <v>13.67236823381332</v>
       </c>
       <c r="BC19" s="1">
-        <v>14.59112497011797</v>
+        <v>14.10206421139197</v>
       </c>
       <c r="BD19" s="1">
-        <v>7.935417252646517</v>
+        <v>11.98475312508087</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.470301196444495</v>
+        <v>11.23693875859633</v>
       </c>
       <c r="BF19" s="1">
-        <v>0.02104152085757962</v>
+        <v>0.03057824612044176</v>
       </c>
       <c r="BG19" s="1">
-        <v>1.262184060846912</v>
+        <v>1.810101496853453</v>
       </c>
       <c r="BH19" s="1">
-        <v>1.245481304787832</v>
+        <v>1.739290706504618</v>
       </c>
       <c r="BI19" s="1">
-        <v>6.296321602459646</v>
+        <v>9.94412077875511</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.664605205384032</v>
+        <v>11.58408213954833</v>
       </c>
       <c r="BK19" s="1">
-        <v>11.89752516114171</v>
+        <v>16.9244693879368</v>
       </c>
       <c r="BL19" s="1">
-        <v>12.09016823181547</v>
+        <v>17.5063831693852</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.01452878522107169</v>
+        <v>0.03241789629202005</v>
       </c>
       <c r="BN19" s="1">
-        <v>0.8576683379628748</v>
+        <v>1.007397348131422</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.4005552104267277</v>
+        <v>0.4706249221100718</v>
       </c>
       <c r="BP19" s="1">
-        <v>11.95863641500987</v>
+        <v>14.5756042924682</v>
       </c>
       <c r="BQ19" s="1">
-        <v>28.00417626997802</v>
+        <v>33.36904557657228</v>
       </c>
       <c r="BR19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="17:76" s="1" customFormat="1">
@@ -4344,181 +4344,181 @@
         <v>132</v>
       </c>
       <c r="R20" s="1">
-        <v>10.36832726352388</v>
+        <v>16.77736815525542</v>
       </c>
       <c r="S20" s="1">
-        <v>10.43313318872285</v>
+        <v>16.94178734556757</v>
       </c>
       <c r="T20" s="1">
-        <v>10.39933223282086</v>
+        <v>16.85749094895198</v>
       </c>
       <c r="U20" s="1">
-        <v>0.04428535697068063</v>
+        <v>0.05552035880131506</v>
       </c>
       <c r="V20" s="1">
-        <v>14.1683709218223</v>
+        <v>22.62675914637762</v>
       </c>
       <c r="W20" s="1">
-        <v>13.97497651375599</v>
+        <v>20.27605640384349</v>
       </c>
       <c r="X20" s="1">
-        <v>18.07651340860243</v>
+        <v>23.14324030409722</v>
       </c>
       <c r="Y20" s="1">
-        <v>17.0662136675892</v>
+        <v>20.90310118777541</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.3268250864797451</v>
+        <v>0.4973153495225467</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.3305672884137578</v>
+        <v>0.5018696660478278</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.32870014213335</v>
+        <v>0.4995593297894859</v>
       </c>
       <c r="AC20" s="1">
-        <v>194.6489711206519</v>
+        <v>259.1075003938806</v>
       </c>
       <c r="AD20" s="1">
-        <v>11.9300507356168</v>
+        <v>20.83427118212589</v>
       </c>
       <c r="AE20" s="1">
-        <v>12.27099040308354</v>
+        <v>21.49086282310192</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.24717667847975</v>
+        <v>22.20082273327826</v>
       </c>
       <c r="AG20" s="1">
-        <v>16.25204861027388</v>
+        <v>22.81403160476281</v>
       </c>
       <c r="AH20" s="1">
-        <v>9.658995952131871</v>
+        <v>16.47089732769998</v>
       </c>
       <c r="AI20" s="1">
-        <v>9.747502317206953</v>
+        <v>16.59713217406795</v>
       </c>
       <c r="AJ20" s="1">
-        <v>9.701953762825104</v>
+        <v>16.53324730115816</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.03452679513257003</v>
+        <v>0.03942844625591115</v>
       </c>
       <c r="AL20" s="1">
-        <v>11.9300507356168</v>
+        <v>20.83427118212589</v>
       </c>
       <c r="AM20" s="1">
-        <v>12.27099040308354</v>
+        <v>21.49086282310192</v>
       </c>
       <c r="AN20" s="1">
-        <v>16.24717667847975</v>
+        <v>22.20082273327826</v>
       </c>
       <c r="AO20" s="1">
-        <v>16.25204861027388</v>
+        <v>22.81403160476281</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.33759644605354</v>
+        <v>20.27215929527416</v>
       </c>
       <c r="AQ20" s="1">
-        <v>12.19116821419646</v>
+        <v>20.11779156956284</v>
       </c>
       <c r="AR20" s="1">
-        <v>0.04367530056216996</v>
+        <v>0.05672686292904607</v>
       </c>
       <c r="AS20" s="1">
-        <v>5.247194096200904</v>
+        <v>7.672033773449714</v>
       </c>
       <c r="AT20" s="1">
-        <v>4.51017250712198</v>
+        <v>6.614913599652131</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.072923554395288</v>
+        <v>10.03465592981023</v>
       </c>
       <c r="AV20" s="1">
-        <v>8.441397152339453</v>
+        <v>9.260322223382786</v>
       </c>
       <c r="AW20" s="1">
-        <v>7.374431140880247</v>
+        <v>12.56652223487129</v>
       </c>
       <c r="AX20" s="1">
-        <v>7.62584406885225</v>
+        <v>12.74994208377444</v>
       </c>
       <c r="AY20" s="1">
-        <v>0.01136556960601795</v>
+        <v>0.01355543017326251</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.17972257250571</v>
+        <v>15.54902036247609</v>
       </c>
       <c r="BA20" s="1">
-        <v>15.09723704777309</v>
+        <v>15.11495706134349</v>
       </c>
       <c r="BB20" s="1">
-        <v>18.35178092680623</v>
+        <v>17.76601549912295</v>
       </c>
       <c r="BC20" s="1">
-        <v>18.53733883047934</v>
+        <v>17.66368778602256</v>
       </c>
       <c r="BD20" s="1">
-        <v>9.029228873451023</v>
+        <v>15.18611424655215</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.835868817648143</v>
+        <v>14.7590736008505</v>
       </c>
       <c r="BF20" s="1">
-        <v>0.03161736505977657</v>
+        <v>0.04593241713873394</v>
       </c>
       <c r="BG20" s="1">
-        <v>11.51185804617088</v>
+        <v>18.68002089623421</v>
       </c>
       <c r="BH20" s="1">
-        <v>12.57042576774946</v>
+        <v>20.14948410385253</v>
       </c>
       <c r="BI20" s="1">
-        <v>15.37986923494346</v>
+        <v>21.06780948355257</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.85422816717272</v>
+        <v>21.76233667424001</v>
       </c>
       <c r="BK20" s="1">
-        <v>10.62793348311567</v>
+        <v>17.02853264297721</v>
       </c>
       <c r="BL20" s="1">
-        <v>10.6441385875869</v>
+        <v>17.43058915753187</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.02177865582390415</v>
+        <v>0.04860426775565756</v>
       </c>
       <c r="BN20" s="1">
-        <v>13.15461201377558</v>
+        <v>17.19512060793729</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.76426356483871</v>
+        <v>18.10776056044406</v>
       </c>
       <c r="BP20" s="1">
-        <v>17.30277995213972</v>
+        <v>18.83243575914342</v>
       </c>
       <c r="BQ20" s="1">
-        <v>18.0506970203891</v>
+        <v>19.08389900101993</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="17:76" s="1" customFormat="1"/>

--- a/txsb_top_timing_bdlmax_tran_channel_a_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_channel_a_tsmc2ff_meas.xlsx
@@ -450,12 +450,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,13 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,12 +494,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,160 +1087,160 @@
         <v>88</v>
       </c>
       <c r="R2">
-        <v>174.791</v>
+        <v>175.004</v>
       </c>
       <c r="S2">
-        <v>175.359</v>
+        <v>175.328</v>
       </c>
       <c r="T2">
-        <v>175.075</v>
+        <v>175.166</v>
       </c>
       <c r="U2" s="2">
-        <v>66.687</v>
-      </c>
-      <c r="V2" s="3">
-        <v>24.911</v>
-      </c>
-      <c r="W2" s="3">
-        <v>22.9383</v>
+        <v>-49.9747</v>
+      </c>
+      <c r="V2" s="2">
+        <v>24.8491</v>
+      </c>
+      <c r="W2" s="2">
+        <v>23.2617</v>
       </c>
       <c r="X2">
-        <v>18.0643</v>
+        <v>18.1093</v>
       </c>
       <c r="Y2">
-        <v>19.6178</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>3089.35</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>3089.21</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>3089.28</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0.246541</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>19.8024</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>19.0605</v>
+        <v>19.3451</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>8088.720000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>9089.620000000001</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>8589.17</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.953356</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>19.7512</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>18.8527</v>
       </c>
       <c r="AF2">
-        <v>30.2993</v>
+        <v>30.378</v>
       </c>
       <c r="AG2">
-        <v>31.4787</v>
+        <v>31.8257</v>
       </c>
       <c r="AH2">
-        <v>89.3523</v>
+        <v>-911.283</v>
       </c>
       <c r="AI2">
-        <v>89.2105</v>
+        <v>89.6155</v>
       </c>
       <c r="AJ2">
-        <v>89.28139999999999</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>24.9941</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>19.8024</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>19.0605</v>
+        <v>-410.834</v>
+      </c>
+      <c r="AK2">
+        <v>50.068</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>19.7512</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>18.8527</v>
       </c>
       <c r="AN2">
-        <v>30.2993</v>
+        <v>30.378</v>
       </c>
       <c r="AO2">
-        <v>31.4787</v>
+        <v>31.8257</v>
       </c>
       <c r="AP2">
-        <v>154.479</v>
+        <v>154.735</v>
       </c>
       <c r="AQ2">
-        <v>154.24</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>66.6656</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>57.8166</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>56.5898</v>
+        <v>154.391</v>
+      </c>
+      <c r="AR2">
+        <v>50.0487</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>58.01450000000001</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>56.6897</v>
       </c>
       <c r="AU2">
-        <v>7.78323</v>
+        <v>7.75668</v>
       </c>
       <c r="AV2">
-        <v>7.95196</v>
+        <v>7.93795</v>
       </c>
       <c r="AW2">
-        <v>59.2665</v>
+        <v>58.75110000000001</v>
       </c>
       <c r="AX2">
-        <v>59.2787</v>
+        <v>59.45800000000001</v>
       </c>
       <c r="AY2" s="2">
-        <v>66.66759999999999</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>5.3438</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>4.96751</v>
+        <v>-49.93</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>5.19444</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>5.47288</v>
       </c>
       <c r="BB2">
-        <v>84.2098</v>
+        <v>86.63120000000001</v>
       </c>
       <c r="BC2">
-        <v>90.5886</v>
+        <v>82.2236</v>
       </c>
       <c r="BD2">
-        <v>75.6216</v>
+        <v>74.861</v>
       </c>
       <c r="BE2">
-        <v>73.0145</v>
+        <v>73.27</v>
       </c>
       <c r="BF2" s="2">
-        <v>66.57640000000001</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>8.86694</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>7.915330000000001</v>
+        <v>-50.1664</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>8.678700000000001</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>7.77057</v>
       </c>
       <c r="BI2">
-        <v>50.7503</v>
+        <v>51.8511</v>
       </c>
       <c r="BJ2">
-        <v>56.8517</v>
+        <v>57.9108</v>
       </c>
       <c r="BK2">
-        <v>93.798</v>
+        <v>93.6044</v>
       </c>
       <c r="BL2">
-        <v>95.2681</v>
+        <v>95.1794</v>
       </c>
       <c r="BM2" s="2">
-        <v>66.7094</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>5.31449</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>2.27288</v>
+        <v>-49.8658</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>5.39891</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>2.29734</v>
       </c>
       <c r="BP2">
-        <v>84.6742</v>
+        <v>83.3502</v>
       </c>
       <c r="BQ2">
-        <v>197.987</v>
+        <v>195.879</v>
       </c>
       <c r="BR2" s="4" t="s">
         <v>89</v>
@@ -1310,160 +1317,160 @@
         <v>103</v>
       </c>
       <c r="R3">
-        <v>206.366</v>
+        <v>207.473</v>
       </c>
       <c r="S3">
-        <v>205.279</v>
+        <v>204.731</v>
       </c>
       <c r="T3">
-        <v>205.822</v>
+        <v>206.102</v>
       </c>
       <c r="U3" s="2">
-        <v>66.6357</v>
-      </c>
-      <c r="V3" s="3">
-        <v>33.2694</v>
-      </c>
-      <c r="W3" s="3">
-        <v>30.5597</v>
+        <v>-50.2458</v>
+      </c>
+      <c r="V3" s="2">
+        <v>33.2736</v>
+      </c>
+      <c r="W3" s="2">
+        <v>30.8027</v>
       </c>
       <c r="X3">
-        <v>13.8866</v>
+        <v>13.8849</v>
       </c>
       <c r="Y3">
-        <v>15.1179</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>3104.8</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>3105.25</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>3105.03</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0.319659</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>24.8405</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>24.5904</v>
+        <v>14.9987</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>8104.970000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>9105.01</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>8604.99</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.995734</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>23.5122</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>23.8307</v>
       </c>
       <c r="AF3">
-        <v>24.8949</v>
+        <v>26.3013</v>
       </c>
       <c r="AG3">
-        <v>25.148</v>
+        <v>25.9498</v>
       </c>
       <c r="AH3">
-        <v>104.799</v>
+        <v>-895.0260000000001</v>
       </c>
       <c r="AI3">
-        <v>105.254</v>
+        <v>105.013</v>
       </c>
       <c r="AJ3">
-        <v>105.027</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>25.0033</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>24.8405</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>24.5904</v>
+        <v>-395.007</v>
+      </c>
+      <c r="AK3">
+        <v>49.9647</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>23.5122</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>23.8307</v>
       </c>
       <c r="AN3">
-        <v>24.8949</v>
+        <v>26.3013</v>
       </c>
       <c r="AO3">
-        <v>25.148</v>
+        <v>25.9498</v>
       </c>
       <c r="AP3">
-        <v>189.618</v>
+        <v>190.454</v>
       </c>
       <c r="AQ3">
-        <v>187.349</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>66.6054</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>64.63419999999999</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>61.40450000000001</v>
+        <v>186.68</v>
+      </c>
+      <c r="AR3">
+        <v>50.3459</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>64.0547</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>62.34820000000001</v>
       </c>
       <c r="AU3">
-        <v>7.14792</v>
+        <v>7.21258</v>
       </c>
       <c r="AV3">
-        <v>7.52388</v>
+        <v>7.41</v>
       </c>
       <c r="AW3">
-        <v>67.34830000000001</v>
+        <v>68.12859999999999</v>
       </c>
       <c r="AX3">
-        <v>68.04989999999999</v>
+        <v>67.74980000000001</v>
       </c>
       <c r="AY3" s="2">
-        <v>66.6884</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>5.748620000000001</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>5.80574</v>
+        <v>-50.0293</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>6.69156</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>5.834750000000001</v>
       </c>
       <c r="BB3">
-        <v>80.6803</v>
+        <v>69.3112</v>
       </c>
       <c r="BC3">
-        <v>79.88639999999999</v>
+        <v>79.4892</v>
       </c>
       <c r="BD3">
-        <v>87.7852</v>
+        <v>88.3681</v>
       </c>
       <c r="BE3">
-        <v>85.0012</v>
+        <v>84.65990000000001</v>
       </c>
       <c r="BF3" s="2">
-        <v>66.5693</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>11.2773</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>10.0132</v>
+        <v>-50.3603</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>11.2158</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>9.999649999999999</v>
       </c>
       <c r="BI3">
-        <v>41.127</v>
+        <v>41.3524</v>
       </c>
       <c r="BJ3">
-        <v>46.3188</v>
+        <v>46.3816</v>
       </c>
       <c r="BK3">
-        <v>109.563</v>
+        <v>110.447</v>
       </c>
       <c r="BL3">
-        <v>111.034</v>
+        <v>110.098</v>
       </c>
       <c r="BM3" s="2">
-        <v>66.7084</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>6.52898</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>3.07992</v>
+        <v>-50.0273</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>6.09164</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>2.78426</v>
       </c>
       <c r="BP3">
-        <v>70.7615</v>
+        <v>75.8416</v>
       </c>
       <c r="BQ3">
-        <v>150.004</v>
+        <v>165.933</v>
       </c>
       <c r="BR3" s="4" t="s">
         <v>89</v>
@@ -1540,160 +1547,160 @@
         <v>103</v>
       </c>
       <c r="R4">
-        <v>201.215</v>
+        <v>201.149</v>
       </c>
       <c r="S4">
-        <v>200.442</v>
+        <v>199.487</v>
       </c>
       <c r="T4">
-        <v>200.828</v>
+        <v>200.318</v>
       </c>
       <c r="U4" s="2">
-        <v>66.6337</v>
-      </c>
-      <c r="V4" s="3">
-        <v>29.1039</v>
-      </c>
-      <c r="W4" s="3">
-        <v>25.7408</v>
+        <v>-50.2036</v>
+      </c>
+      <c r="V4" s="2">
+        <v>28.733</v>
+      </c>
+      <c r="W4" s="2">
+        <v>26.01</v>
       </c>
       <c r="X4">
-        <v>15.8741</v>
+        <v>16.0791</v>
       </c>
       <c r="Y4">
-        <v>17.9482</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>3099.35</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>3099.74</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>3099.54</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0.351102</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>22.7196</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>22.0483</v>
+        <v>17.7624</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>8099.930000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>9098.869999999999</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>8599.4</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.841787</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>23.4496</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>22.0458</v>
       </c>
       <c r="AF4">
-        <v>27.2187</v>
+        <v>26.3714</v>
       </c>
       <c r="AG4">
-        <v>28.0475</v>
+        <v>28.0507</v>
       </c>
       <c r="AH4">
-        <v>99.3489</v>
+        <v>-900.073</v>
       </c>
       <c r="AI4">
-        <v>99.7354</v>
+        <v>98.8736</v>
       </c>
       <c r="AJ4">
-        <v>99.54220000000001</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>24.9954</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>22.7196</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>22.0483</v>
+        <v>-400.6</v>
+      </c>
+      <c r="AK4">
+        <v>49.8992</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>23.4496</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>22.0458</v>
       </c>
       <c r="AN4">
-        <v>27.2187</v>
+        <v>26.3714</v>
       </c>
       <c r="AO4">
-        <v>28.0475</v>
+        <v>28.0507</v>
       </c>
       <c r="AP4">
-        <v>182.723</v>
+        <v>182.291</v>
       </c>
       <c r="AQ4">
-        <v>180.653</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>66.58620000000001</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>60.4785</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>58.4079</v>
+        <v>179.721</v>
+      </c>
+      <c r="AR4">
+        <v>50.2927</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>61.01430000000001</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>58.4422</v>
       </c>
       <c r="AU4">
-        <v>7.63908</v>
+        <v>7.572</v>
       </c>
       <c r="AV4">
-        <v>7.90988</v>
+        <v>7.90525</v>
       </c>
       <c r="AW4">
-        <v>63.12420000000001</v>
+        <v>63.2738</v>
       </c>
       <c r="AX4">
-        <v>63.33370000000001</v>
+        <v>62.6361</v>
       </c>
       <c r="AY4" s="2">
-        <v>66.67449999999999</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>4.901000000000001</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>4.74865</v>
+        <v>-50.0722</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>5.27862</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>4.65212</v>
       </c>
       <c r="BB4">
-        <v>94.6337</v>
+        <v>87.8639</v>
       </c>
       <c r="BC4">
-        <v>97.6699</v>
+        <v>99.6965</v>
       </c>
       <c r="BD4">
-        <v>83.3377</v>
+        <v>83.22760000000001</v>
       </c>
       <c r="BE4">
-        <v>79.9589</v>
+        <v>79.18219999999999</v>
       </c>
       <c r="BF4" s="2">
-        <v>66.5449</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>10.5351</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>9.26812</v>
+        <v>-50.4279</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>10.5066</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>8.997539999999999</v>
       </c>
       <c r="BI4">
-        <v>44.0241</v>
+        <v>44.1437</v>
       </c>
       <c r="BJ4">
-        <v>50.0425</v>
+        <v>51.5474</v>
       </c>
       <c r="BK4">
-        <v>106.44</v>
+        <v>107.096</v>
       </c>
       <c r="BL4">
-        <v>107.972</v>
+        <v>107.278</v>
       </c>
       <c r="BM4" s="2">
-        <v>66.6961</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>5.839670000000001</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>2.64569</v>
+        <v>-50.0358</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>5.98711</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>2.46312</v>
       </c>
       <c r="BP4">
-        <v>79.114</v>
+        <v>77.1658</v>
       </c>
       <c r="BQ4">
-        <v>174.624</v>
+        <v>187.567</v>
       </c>
       <c r="BR4" s="4" t="s">
         <v>89</v>
@@ -1770,160 +1777,160 @@
         <v>103</v>
       </c>
       <c r="R5">
-        <v>230.364</v>
+        <v>229.523</v>
       </c>
       <c r="S5">
-        <v>230.431</v>
+        <v>231.086</v>
       </c>
       <c r="T5">
-        <v>230.398</v>
+        <v>230.304</v>
       </c>
       <c r="U5" s="2">
-        <v>66.651</v>
+        <v>-49.7935</v>
       </c>
       <c r="V5">
-        <v>38.2189</v>
+        <v>37.7617</v>
       </c>
       <c r="W5">
-        <v>34.5475</v>
+        <v>35.02800000000001</v>
       </c>
       <c r="X5">
-        <v>10.8323</v>
+        <v>10.9635</v>
       </c>
       <c r="Y5">
-        <v>11.9835</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>3115.94</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>3116.69</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>3116.32</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.349989</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>27.5917</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>27.6021</v>
+        <v>11.8191</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>8116.5</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>9116.469999999999</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>8616.48</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1.17765</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>27.5676</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>27.5515</v>
       </c>
       <c r="AF5">
-        <v>20.006</v>
+        <v>20.0235</v>
       </c>
       <c r="AG5">
-        <v>19.9984</v>
+        <v>20.0352</v>
       </c>
       <c r="AH5">
-        <v>115.944</v>
+        <v>-883.496</v>
       </c>
       <c r="AI5">
-        <v>116.689</v>
+        <v>116.465</v>
       </c>
       <c r="AJ5">
-        <v>116.317</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>25.0047</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>27.5917</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>27.6021</v>
+        <v>-383.515</v>
+      </c>
+      <c r="AK5">
+        <v>49.9836</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>27.5676</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>27.5515</v>
       </c>
       <c r="AN5">
-        <v>20.006</v>
+        <v>20.0235</v>
       </c>
       <c r="AO5">
-        <v>19.9984</v>
+        <v>20.0352</v>
       </c>
       <c r="AP5">
-        <v>216.731</v>
+        <v>215.163</v>
       </c>
       <c r="AQ5">
-        <v>214.428</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>66.5928</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>67.1361</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>64.5359</v>
+        <v>215.227</v>
+      </c>
+      <c r="AR5">
+        <v>49.9464</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>66.6007</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>64.7308</v>
       </c>
       <c r="AU5">
-        <v>6.16658</v>
+        <v>6.21615</v>
       </c>
       <c r="AV5">
-        <v>6.41504</v>
+        <v>6.39572</v>
       </c>
       <c r="AW5">
-        <v>72.75230000000001</v>
+        <v>72.8408</v>
       </c>
       <c r="AX5">
-        <v>73.3409</v>
+        <v>72.97799999999999</v>
       </c>
       <c r="AY5" s="2">
-        <v>66.6858</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>7.524579999999999</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>7.176550000000001</v>
+        <v>-49.9861</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>6.29997</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>7.17304</v>
       </c>
       <c r="BB5">
-        <v>55.0197</v>
+        <v>65.7146</v>
       </c>
       <c r="BC5">
-        <v>57.6879</v>
+        <v>57.7161</v>
       </c>
       <c r="BD5">
-        <v>96.9418</v>
+        <v>96.48350000000001</v>
       </c>
       <c r="BE5">
-        <v>93.4235</v>
+        <v>92.9893</v>
       </c>
       <c r="BF5" s="2">
-        <v>66.54510000000001</v>
-      </c>
-      <c r="BG5" s="3">
-        <v>12.7172</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>11.4639</v>
+        <v>-50.3678</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>12.4738</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>11.4576</v>
       </c>
       <c r="BI5">
-        <v>32.5543</v>
+        <v>33.1897</v>
       </c>
       <c r="BJ5">
-        <v>36.1133</v>
+        <v>36.1333</v>
       </c>
       <c r="BK5">
-        <v>123.646</v>
+        <v>123.1</v>
       </c>
       <c r="BL5">
-        <v>124.997</v>
+        <v>124.887</v>
       </c>
       <c r="BM5" s="2">
-        <v>66.70310000000001</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>7.48438</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>3.39771</v>
+        <v>-49.8442</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>7.436059999999999</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>3.18817</v>
       </c>
       <c r="BP5">
-        <v>55.3152</v>
+        <v>55.6747</v>
       </c>
       <c r="BQ5">
-        <v>121.847</v>
+        <v>129.855</v>
       </c>
       <c r="BR5" s="4" t="s">
         <v>89</v>
@@ -2000,160 +2007,160 @@
         <v>103</v>
       </c>
       <c r="R6">
-        <v>234.816</v>
+        <v>236.226</v>
       </c>
       <c r="S6">
-        <v>235.646</v>
+        <v>235.461</v>
       </c>
       <c r="T6">
-        <v>235.231</v>
+        <v>235.844</v>
       </c>
       <c r="U6" s="2">
-        <v>66.7081</v>
-      </c>
-      <c r="V6" s="3">
-        <v>33.7279</v>
-      </c>
-      <c r="W6" s="3">
-        <v>28.8747</v>
+        <v>-50.1276</v>
+      </c>
+      <c r="V6" s="2">
+        <v>33.2243</v>
+      </c>
+      <c r="W6" s="2">
+        <v>29.2319</v>
       </c>
       <c r="X6">
-        <v>12.2747</v>
+        <v>12.4608</v>
       </c>
       <c r="Y6">
-        <v>14.3378</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>3115.88</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>3115.66</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>3115.77</v>
+        <v>14.1626</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>8115.879999999999</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>9115.76</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>8615.82</v>
       </c>
       <c r="AC6" s="2">
-        <v>57.9376</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>27.2607</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>25.0944</v>
+        <v>30.6475</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>27.5894</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>25.1347</v>
       </c>
       <c r="AF6">
-        <v>20.2489</v>
+        <v>20.0077</v>
       </c>
       <c r="AG6">
-        <v>21.9969</v>
+        <v>21.9616</v>
       </c>
       <c r="AH6">
-        <v>115.879</v>
+        <v>-884.125</v>
       </c>
       <c r="AI6">
-        <v>115.659</v>
+        <v>115.757</v>
       </c>
       <c r="AJ6">
-        <v>115.769</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>24.9805</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>27.2607</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>25.0944</v>
+        <v>-384.184</v>
+      </c>
+      <c r="AK6">
+        <v>49.9268</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>27.5894</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>25.1347</v>
       </c>
       <c r="AN6">
-        <v>20.2489</v>
+        <v>20.0077</v>
       </c>
       <c r="AO6">
-        <v>21.9969</v>
+        <v>21.9616</v>
       </c>
       <c r="AP6">
-        <v>218.609</v>
+        <v>219.697</v>
       </c>
       <c r="AQ6">
-        <v>217.154</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>66.6313</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>64.2208</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>61.1205</v>
+        <v>217.427</v>
+      </c>
+      <c r="AR6">
+        <v>50.3061</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>63.9093</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>61.3744</v>
       </c>
       <c r="AU6">
-        <v>6.44651</v>
+        <v>6.47793</v>
       </c>
       <c r="AV6">
-        <v>6.7735</v>
+        <v>6.74548</v>
       </c>
       <c r="AW6">
-        <v>70.6554</v>
+        <v>70.4436</v>
       </c>
       <c r="AX6">
-        <v>71.0219</v>
+        <v>70.50370000000001</v>
       </c>
       <c r="AY6" s="2">
-        <v>66.6808</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>6.2682</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>6.11272</v>
+        <v>-50.0093</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>6.40797</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>6.23969</v>
       </c>
       <c r="BB6">
-        <v>66.04770000000001</v>
+        <v>64.607</v>
       </c>
       <c r="BC6">
-        <v>67.7276</v>
+        <v>66.34950000000001</v>
       </c>
       <c r="BD6">
-        <v>95.7431</v>
+        <v>95.6499</v>
       </c>
       <c r="BE6">
-        <v>91.32780000000001</v>
+        <v>91.0217</v>
       </c>
       <c r="BF6" s="2">
-        <v>66.51690000000001</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>11.4245</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>10.8796</v>
+        <v>-50.5138</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>12.027</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>10.8733</v>
       </c>
       <c r="BI6">
-        <v>36.2379</v>
+        <v>34.4224</v>
       </c>
       <c r="BJ6">
-        <v>38.053</v>
+        <v>38.0749</v>
       </c>
       <c r="BK6">
-        <v>126.282</v>
+        <v>125.812</v>
       </c>
       <c r="BL6">
-        <v>128.655</v>
+        <v>127.866</v>
       </c>
       <c r="BM6" s="2">
-        <v>66.73860000000001</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>7.432010000000001</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>3.15435</v>
+        <v>-49.8499</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>7.56183</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>3.22956</v>
       </c>
       <c r="BP6">
-        <v>55.7049</v>
+        <v>54.7487</v>
       </c>
       <c r="BQ6">
-        <v>131.247</v>
+        <v>128.191</v>
       </c>
       <c r="BR6" s="4" t="s">
         <v>89</v>
@@ -2230,160 +2237,160 @@
         <v>119</v>
       </c>
       <c r="R7">
-        <v>158.03</v>
+        <v>156.785</v>
       </c>
       <c r="S7">
-        <v>156.134</v>
+        <v>157.518</v>
       </c>
       <c r="T7">
-        <v>157.082</v>
+        <v>157.151</v>
       </c>
       <c r="U7" s="2">
-        <v>66.60769999999999</v>
-      </c>
-      <c r="V7" s="3">
-        <v>22.4674</v>
-      </c>
-      <c r="W7" s="3">
-        <v>21.5695</v>
+        <v>-49.9082</v>
+      </c>
+      <c r="V7" s="2">
+        <v>22.3196</v>
+      </c>
+      <c r="W7" s="2">
+        <v>21.6608</v>
       </c>
       <c r="X7">
-        <v>20.5631</v>
+        <v>20.6993</v>
       </c>
       <c r="Y7">
-        <v>21.4191</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>3080.54</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>3080.27</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>3080.4</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>2.91834</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>16.6844</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>16.7678</v>
+        <v>21.3289</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>8080.219999999999</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>9081.450000000001</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>8580.83</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0.659808</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>17.9273</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>16.7622</v>
       </c>
       <c r="AF7">
-        <v>37.0645</v>
+        <v>34.4949</v>
       </c>
       <c r="AG7">
-        <v>36.8802</v>
+        <v>36.8926</v>
       </c>
       <c r="AH7">
-        <v>80.5361</v>
+        <v>-919.7850000000001</v>
       </c>
       <c r="AI7">
-        <v>80.26990000000001</v>
+        <v>81.45439999999999</v>
       </c>
       <c r="AJ7">
-        <v>80.40300000000001</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>24.9913</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>16.6844</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>16.7678</v>
+        <v>-419.165</v>
+      </c>
+      <c r="AK7">
+        <v>49.9556</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>17.9273</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>16.7622</v>
       </c>
       <c r="AN7">
-        <v>37.0645</v>
+        <v>34.4949</v>
       </c>
       <c r="AO7">
-        <v>36.8802</v>
+        <v>36.8926</v>
       </c>
       <c r="AP7">
-        <v>136.69</v>
+        <v>135.429</v>
       </c>
       <c r="AQ7">
-        <v>134.424</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>66.5971</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>56.3596</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>55.3822</v>
+        <v>135.842</v>
+      </c>
+      <c r="AR7">
+        <v>49.9418</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>56.2667</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>55.5584</v>
       </c>
       <c r="AU7">
-        <v>8.197369999999999</v>
+        <v>8.210900000000001</v>
       </c>
       <c r="AV7">
-        <v>8.342029999999999</v>
+        <v>8.315569999999999</v>
       </c>
       <c r="AW7">
-        <v>55.9559</v>
+        <v>55.6582</v>
       </c>
       <c r="AX7">
-        <v>55.65600000000001</v>
+        <v>57.1197</v>
       </c>
       <c r="AY7" s="2">
-        <v>66.6568</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>6.81261</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>6.23398</v>
+        <v>-49.8538</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>6.78066</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>7.9747</v>
       </c>
       <c r="BB7">
-        <v>68.0796</v>
+        <v>68.4004</v>
       </c>
       <c r="BC7">
-        <v>74.39870000000001</v>
+        <v>58.1589</v>
       </c>
       <c r="BD7">
-        <v>69.6433</v>
+        <v>69.3417</v>
       </c>
       <c r="BE7">
-        <v>67.08029999999999</v>
+        <v>68.2132</v>
       </c>
       <c r="BF7" s="2">
-        <v>66.5782</v>
-      </c>
-      <c r="BG7" s="3">
-        <v>8.231389999999999</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>7.07744</v>
+        <v>-50.1168</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>8.825480000000001</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>7.14255</v>
       </c>
       <c r="BI7">
-        <v>56.3453</v>
+        <v>52.5524</v>
       </c>
       <c r="BJ7">
-        <v>65.5322</v>
+        <v>64.9348</v>
       </c>
       <c r="BK7">
-        <v>84.672</v>
+        <v>84.6337</v>
       </c>
       <c r="BL7">
-        <v>83.46759999999999</v>
+        <v>84.5166</v>
       </c>
       <c r="BM7" s="2">
-        <v>66.62569999999999</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>4.99001</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>2.25556</v>
+        <v>-50.0254</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>5.09293</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>2.25146</v>
       </c>
       <c r="BP7">
-        <v>92.5851</v>
+        <v>90.714</v>
       </c>
       <c r="BQ7">
-        <v>204.827</v>
+        <v>205.2</v>
       </c>
       <c r="BR7" s="4" t="s">
         <v>89</v>
@@ -2460,160 +2467,160 @@
         <v>119</v>
       </c>
       <c r="R8">
-        <v>144.864</v>
+        <v>145.339</v>
       </c>
       <c r="S8">
-        <v>145.32</v>
+        <v>145.486</v>
       </c>
       <c r="T8">
-        <v>145.092</v>
+        <v>145.412</v>
       </c>
       <c r="U8" s="2">
-        <v>66.6861</v>
-      </c>
-      <c r="V8" s="3">
-        <v>19.4964</v>
-      </c>
-      <c r="W8" s="3">
-        <v>18.4374</v>
+        <v>-49.9874</v>
+      </c>
+      <c r="V8" s="2">
+        <v>19.3522</v>
+      </c>
+      <c r="W8" s="2">
+        <v>18.6258</v>
       </c>
       <c r="X8">
-        <v>23.6967</v>
+        <v>23.8733</v>
       </c>
       <c r="Y8">
-        <v>25.0578</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>3071.81</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>3072.14</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>3071.98</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0.158738</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>15.5356</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>14.4731</v>
+        <v>24.8043</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>8072.429999999999</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>9072.33</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>8572.379999999999</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>47.8918</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>15.5043</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>15.0405</v>
       </c>
       <c r="AF8">
-        <v>39.8054</v>
+        <v>39.8858</v>
       </c>
       <c r="AG8">
-        <v>42.7277</v>
+        <v>41.1157</v>
       </c>
       <c r="AH8">
-        <v>71.80930000000001</v>
+        <v>-927.573</v>
       </c>
       <c r="AI8">
-        <v>72.1427</v>
+        <v>72.3279</v>
       </c>
       <c r="AJ8">
-        <v>71.976</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>25.0029</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>15.5356</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>14.4731</v>
+        <v>-427.622</v>
+      </c>
+      <c r="AK8">
+        <v>50.0072</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>15.5043</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>15.0405</v>
       </c>
       <c r="AN8">
-        <v>39.8054</v>
+        <v>39.8858</v>
       </c>
       <c r="AO8">
-        <v>42.7277</v>
+        <v>41.1157</v>
       </c>
       <c r="AP8">
-        <v>122.897</v>
+        <v>123.346</v>
       </c>
       <c r="AQ8">
-        <v>123.128</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>66.6677</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>53.3174</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>52.1393</v>
+        <v>123.292</v>
+      </c>
+      <c r="AR8">
+        <v>50.0491</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>53.272</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>52.2001</v>
       </c>
       <c r="AU8">
-        <v>8.66508</v>
+        <v>8.672470000000001</v>
       </c>
       <c r="AV8">
-        <v>8.86088</v>
+        <v>8.85056</v>
       </c>
       <c r="AW8">
-        <v>48.81930000000001</v>
+        <v>49.62350000000001</v>
       </c>
       <c r="AX8">
-        <v>49.2753</v>
+        <v>49.3253</v>
       </c>
       <c r="AY8" s="2">
-        <v>66.6797</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>4.80107</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>4.64528</v>
+        <v>-50.028</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>4.79895</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>4.57704</v>
       </c>
       <c r="BB8">
-        <v>96.6035</v>
+        <v>96.64619999999999</v>
       </c>
       <c r="BC8">
-        <v>99.8432</v>
+        <v>101.332</v>
       </c>
       <c r="BD8">
-        <v>61.39360000000001</v>
+        <v>61.88400000000001</v>
       </c>
       <c r="BE8">
-        <v>59.8957</v>
+        <v>59.9509</v>
       </c>
       <c r="BF8" s="2">
-        <v>66.613</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>7.032100000000001</v>
-      </c>
-      <c r="BH8" s="3">
-        <v>6.275840000000001</v>
+        <v>-50.1959</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>6.956</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>6.139180000000001</v>
       </c>
       <c r="BI8">
-        <v>65.9547</v>
+        <v>66.67619999999999</v>
       </c>
       <c r="BJ8">
-        <v>73.9025</v>
+        <v>75.5475</v>
       </c>
       <c r="BK8">
-        <v>76.2842</v>
+        <v>76.70270000000001</v>
       </c>
       <c r="BL8">
-        <v>77.24169999999999</v>
+        <v>77.304</v>
       </c>
       <c r="BM8" s="2">
-        <v>66.6935</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>4.54687</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>2.03414</v>
+        <v>-49.9565</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>4.67217</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>2.00864</v>
       </c>
       <c r="BP8">
-        <v>101.608</v>
+        <v>98.8835</v>
       </c>
       <c r="BQ8">
-        <v>227.123</v>
+        <v>230.006</v>
       </c>
       <c r="BR8" s="4" t="s">
         <v>89</v>
@@ -2690,160 +2697,160 @@
         <v>119</v>
       </c>
       <c r="R9">
-        <v>167.319</v>
+        <v>167.15</v>
       </c>
       <c r="S9">
-        <v>165.397</v>
+        <v>165.961</v>
       </c>
       <c r="T9">
-        <v>166.358</v>
+        <v>166.555</v>
       </c>
       <c r="U9" s="2">
-        <v>66.6309</v>
-      </c>
-      <c r="V9" s="3">
-        <v>23.759</v>
-      </c>
-      <c r="W9" s="3">
-        <v>22.9557</v>
+        <v>-50.1045</v>
+      </c>
+      <c r="V9" s="2">
+        <v>23.8055</v>
+      </c>
+      <c r="W9" s="2">
+        <v>23.0741</v>
       </c>
       <c r="X9">
-        <v>17.425</v>
+        <v>17.3909</v>
       </c>
       <c r="Y9">
-        <v>18.0347</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>3084.55</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>3084.76</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>3084.66</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0.174961</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>18.572</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>17.8547</v>
+        <v>17.9422</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>8085.27</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>9085.18</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8585.23</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0.5823469999999999</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>18.3799</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>17.6737</v>
       </c>
       <c r="AF9">
-        <v>29.7222</v>
+        <v>30.0328</v>
       </c>
       <c r="AG9">
-        <v>30.9162</v>
+        <v>31.2328</v>
       </c>
       <c r="AH9">
-        <v>84.5523</v>
+        <v>-914.7320000000001</v>
       </c>
       <c r="AI9">
-        <v>84.76480000000001</v>
+        <v>85.1849</v>
       </c>
       <c r="AJ9">
-        <v>84.6585</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>25.0028</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>18.572</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>17.8547</v>
+        <v>-414.774</v>
+      </c>
+      <c r="AK9">
+        <v>50.0331</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>18.3799</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>17.6737</v>
       </c>
       <c r="AN9">
-        <v>29.7222</v>
+        <v>30.0328</v>
       </c>
       <c r="AO9">
-        <v>30.9162</v>
+        <v>31.2328</v>
       </c>
       <c r="AP9">
-        <v>146.414</v>
+        <v>146.411</v>
       </c>
       <c r="AQ9">
-        <v>144.248</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>66.6159</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>57.4108</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>56.3886</v>
+        <v>144.873</v>
+      </c>
+      <c r="AR9">
+        <v>50.1607</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>57.3094</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>56.5133</v>
       </c>
       <c r="AU9">
-        <v>7.21118</v>
+        <v>7.22395</v>
       </c>
       <c r="AV9">
-        <v>7.34191</v>
+        <v>7.32571</v>
       </c>
       <c r="AW9">
-        <v>58.0728</v>
+        <v>58.0645</v>
       </c>
       <c r="AX9">
-        <v>58.34670000000001</v>
+        <v>58.2145</v>
       </c>
       <c r="AY9" s="2">
-        <v>66.6778</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>6.54433</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>6.448370000000001</v>
+        <v>-49.9841</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>7.45313</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>6.275770000000001</v>
       </c>
       <c r="BB9">
-        <v>63.2608</v>
+        <v>55.5471</v>
       </c>
       <c r="BC9">
-        <v>64.2022</v>
+        <v>65.968</v>
       </c>
       <c r="BD9">
-        <v>73.07140000000001</v>
+        <v>73.14870000000001</v>
       </c>
       <c r="BE9">
-        <v>70.73990000000001</v>
+        <v>70.3587</v>
       </c>
       <c r="BF9" s="2">
-        <v>66.59269999999999</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>9.47725</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>7.79086</v>
+        <v>-50.2834</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>9.575230000000001</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>7.99921</v>
       </c>
       <c r="BI9">
-        <v>43.6836</v>
+        <v>43.2365</v>
       </c>
       <c r="BJ9">
-        <v>53.1392</v>
+        <v>51.7551</v>
       </c>
       <c r="BK9">
-        <v>90.05500000000001</v>
+        <v>90.18980000000001</v>
       </c>
       <c r="BL9">
-        <v>89.81440000000001</v>
+        <v>89.182</v>
       </c>
       <c r="BM9" s="2">
-        <v>66.6683</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>5.57846</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>2.44994</v>
+        <v>-50.0907</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>5.682</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>2.35303</v>
       </c>
       <c r="BP9">
-        <v>74.214</v>
+        <v>72.8617</v>
       </c>
       <c r="BQ9">
-        <v>168.984</v>
+        <v>175.944</v>
       </c>
       <c r="BR9" s="4" t="s">
         <v>89</v>
@@ -2920,160 +2927,160 @@
         <v>119</v>
       </c>
       <c r="R10">
-        <v>157.222</v>
+        <v>155.838</v>
       </c>
       <c r="S10">
-        <v>157.573</v>
+        <v>157.49</v>
       </c>
       <c r="T10">
-        <v>157.397</v>
+        <v>156.664</v>
       </c>
       <c r="U10" s="2">
-        <v>66.7209</v>
-      </c>
-      <c r="V10" s="3">
-        <v>20.8389</v>
-      </c>
-      <c r="W10" s="3">
-        <v>19.472</v>
+        <v>-49.7927</v>
+      </c>
+      <c r="V10" s="2">
+        <v>20.4116</v>
+      </c>
+      <c r="W10" s="2">
+        <v>19.6068</v>
       </c>
       <c r="X10">
-        <v>19.8667</v>
+        <v>20.2826</v>
       </c>
       <c r="Y10">
-        <v>21.2613</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>3078.4</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>3078.09</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>3078.25</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0.209403</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>16.798</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>15.7568</v>
+        <v>21.1151</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>8077.660000000001</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>9078.030000000001</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>8577.85</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.73712</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>16.4547</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>15.5588</v>
       </c>
       <c r="AF10">
-        <v>32.8611</v>
+        <v>33.5467</v>
       </c>
       <c r="AG10">
-        <v>35.0326</v>
+        <v>35.4783</v>
       </c>
       <c r="AH10">
-        <v>78.40299999999999</v>
+        <v>-922.3380000000001</v>
       </c>
       <c r="AI10">
-        <v>78.0936</v>
+        <v>78.0283</v>
       </c>
       <c r="AJ10">
-        <v>78.2483</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>24.9759</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>16.798</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>15.7568</v>
+        <v>-422.155</v>
+      </c>
+      <c r="AK10">
+        <v>50.0768</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>16.4547</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>15.5588</v>
       </c>
       <c r="AN10">
-        <v>32.8611</v>
+        <v>33.5467</v>
       </c>
       <c r="AO10">
-        <v>35.0326</v>
+        <v>35.4783</v>
       </c>
       <c r="AP10">
-        <v>135.601</v>
+        <v>134.074</v>
       </c>
       <c r="AQ10">
-        <v>135.63</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>66.70059999999999</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>54.5353</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>53.3176</v>
+        <v>135.499</v>
+      </c>
+      <c r="AR10">
+        <v>49.8251</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>54.4371</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>53.4355</v>
       </c>
       <c r="AU10">
-        <v>7.59141</v>
+        <v>7.60511</v>
       </c>
       <c r="AV10">
-        <v>7.76479</v>
+        <v>7.74766</v>
       </c>
       <c r="AW10">
-        <v>52.8177</v>
+        <v>52.027</v>
       </c>
       <c r="AX10">
-        <v>52.911</v>
+        <v>52.6429</v>
       </c>
       <c r="AY10" s="2">
-        <v>66.6789</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>4.92349</v>
-      </c>
-      <c r="BA10" s="3">
-        <v>4.784809999999999</v>
+        <v>-49.9357</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>4.815090000000001</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>4.72894</v>
       </c>
       <c r="BB10">
-        <v>84.0868</v>
+        <v>85.9796</v>
       </c>
       <c r="BC10">
-        <v>86.52370000000001</v>
+        <v>87.5461</v>
       </c>
       <c r="BD10">
-        <v>66.7347</v>
+        <v>65.90770000000001</v>
       </c>
       <c r="BE10">
-        <v>64.78040000000001</v>
+        <v>64.3439</v>
       </c>
       <c r="BF10" s="2">
-        <v>66.6138</v>
-      </c>
-      <c r="BG10" s="3">
-        <v>7.64858</v>
-      </c>
-      <c r="BH10" s="3">
-        <v>7.00314</v>
+        <v>-50.1604</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>7.71231</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>6.49275</v>
       </c>
       <c r="BI10">
-        <v>54.1277</v>
+        <v>53.6804</v>
       </c>
       <c r="BJ10">
-        <v>59.1164</v>
+        <v>63.7634</v>
       </c>
       <c r="BK10">
-        <v>83.75980000000001</v>
+        <v>83.08</v>
       </c>
       <c r="BL10">
-        <v>85.4637</v>
+        <v>85.3026</v>
       </c>
       <c r="BM10" s="2">
-        <v>66.73560000000001</v>
-      </c>
-      <c r="BN10" s="3">
-        <v>5.01274</v>
-      </c>
-      <c r="BO10" s="3">
-        <v>2.10102</v>
+        <v>-49.8006</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>5.18522</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>2.2032</v>
       </c>
       <c r="BP10">
-        <v>82.5896</v>
+        <v>79.8424</v>
       </c>
       <c r="BQ10">
-        <v>197.047</v>
+        <v>187.908</v>
       </c>
       <c r="BR10" s="4" t="s">
         <v>89</v>
@@ -3332,160 +3339,160 @@
         <v>123</v>
       </c>
       <c r="R12" s="1">
-        <v>144.864</v>
+        <v>145.339</v>
       </c>
       <c r="S12" s="1">
-        <v>145.32</v>
+        <v>145.486</v>
       </c>
       <c r="T12" s="1">
-        <v>145.092</v>
+        <v>145.412</v>
       </c>
       <c r="U12" s="2">
-        <v>66.60769999999999</v>
-      </c>
-      <c r="V12" s="3">
-        <v>19.4964</v>
-      </c>
-      <c r="W12" s="3">
-        <v>18.4374</v>
+        <v>-50.2458</v>
+      </c>
+      <c r="V12" s="2">
+        <v>19.3522</v>
+      </c>
+      <c r="W12" s="2">
+        <v>18.6258</v>
       </c>
       <c r="X12" s="1">
-        <v>10.8323</v>
+        <v>10.9635</v>
       </c>
       <c r="Y12" s="1">
-        <v>11.9835</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>3071.81</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>3072.14</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>3071.98</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0.158738</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>15.5356</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>14.4731</v>
+        <v>11.8191</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>8072.429999999999</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>9072.33</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>8572.379999999999</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0.5823469999999999</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>15.5043</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>15.0405</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.006</v>
+        <v>20.0077</v>
       </c>
       <c r="AG12" s="1">
-        <v>19.9984</v>
+        <v>20.0352</v>
       </c>
       <c r="AH12" s="1">
-        <v>71.80930000000001</v>
+        <v>-927.573</v>
       </c>
       <c r="AI12" s="1">
-        <v>72.1427</v>
+        <v>72.3279</v>
       </c>
       <c r="AJ12" s="1">
-        <v>71.976</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>24.9759</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>15.5356</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>14.4731</v>
+        <v>-427.622</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>49.8992</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>15.5043</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>15.0405</v>
       </c>
       <c r="AN12" s="1">
-        <v>20.006</v>
+        <v>20.0077</v>
       </c>
       <c r="AO12" s="1">
-        <v>19.9984</v>
+        <v>20.0352</v>
       </c>
       <c r="AP12" s="1">
-        <v>122.897</v>
+        <v>123.346</v>
       </c>
       <c r="AQ12" s="1">
-        <v>123.128</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>66.58620000000001</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>53.3174</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>52.1393</v>
+        <v>123.292</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>49.8251</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>53.272</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>52.2001</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.16658</v>
+        <v>6.21615</v>
       </c>
       <c r="AV12" s="1">
-        <v>6.41504</v>
+        <v>6.39572</v>
       </c>
       <c r="AW12" s="1">
-        <v>48.81930000000001</v>
+        <v>49.62350000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>49.2753</v>
+        <v>49.3253</v>
       </c>
       <c r="AY12" s="2">
-        <v>66.6568</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>4.80107</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>4.64528</v>
+        <v>-50.0722</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>4.79895</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>4.57704</v>
       </c>
       <c r="BB12" s="1">
-        <v>55.0197</v>
+        <v>55.5471</v>
       </c>
       <c r="BC12" s="1">
-        <v>57.6879</v>
+        <v>57.7161</v>
       </c>
       <c r="BD12" s="1">
-        <v>61.39360000000001</v>
+        <v>61.88400000000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>59.8957</v>
+        <v>59.9509</v>
       </c>
       <c r="BF12" s="2">
-        <v>66.51690000000001</v>
-      </c>
-      <c r="BG12" s="3">
-        <v>7.032100000000001</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>6.275840000000001</v>
+        <v>-50.5138</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>6.956</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>6.139180000000001</v>
       </c>
       <c r="BI12" s="1">
-        <v>32.5543</v>
+        <v>33.1897</v>
       </c>
       <c r="BJ12" s="1">
-        <v>36.1133</v>
+        <v>36.1333</v>
       </c>
       <c r="BK12" s="1">
-        <v>76.2842</v>
+        <v>76.70270000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>77.24169999999999</v>
+        <v>77.304</v>
       </c>
       <c r="BM12" s="2">
-        <v>66.62569999999999</v>
-      </c>
-      <c r="BN12" s="3">
-        <v>4.54687</v>
-      </c>
-      <c r="BO12" s="3">
-        <v>2.03414</v>
+        <v>-50.0907</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>4.67217</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>2.00864</v>
       </c>
       <c r="BP12" s="1">
-        <v>55.3152</v>
+        <v>54.7487</v>
       </c>
       <c r="BQ12" s="1">
-        <v>121.847</v>
+        <v>128.191</v>
       </c>
       <c r="BR12" s="1" t="s">
         <v>124</v>
@@ -3514,160 +3521,160 @@
         <v>125</v>
       </c>
       <c r="R13" s="1">
-        <v>234.816</v>
+        <v>236.226</v>
       </c>
       <c r="S13" s="1">
-        <v>235.646</v>
+        <v>235.461</v>
       </c>
       <c r="T13" s="1">
-        <v>235.231</v>
+        <v>235.844</v>
       </c>
       <c r="U13" s="2">
-        <v>66.7209</v>
+        <v>-49.7927</v>
       </c>
       <c r="V13" s="1">
-        <v>38.2189</v>
+        <v>37.7617</v>
       </c>
       <c r="W13" s="1">
-        <v>34.5475</v>
+        <v>35.02800000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>23.6967</v>
+        <v>23.8733</v>
       </c>
       <c r="Y13" s="1">
-        <v>25.0578</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>3115.94</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>3116.69</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>3116.32</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>57.9376</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>27.5917</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>27.6021</v>
+        <v>24.8043</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>8116.5</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>9116.469999999999</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>8616.48</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>47.8918</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>27.5894</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>27.5515</v>
       </c>
       <c r="AF13" s="1">
-        <v>39.8054</v>
+        <v>39.8858</v>
       </c>
       <c r="AG13" s="1">
-        <v>42.7277</v>
+        <v>41.1157</v>
       </c>
       <c r="AH13" s="1">
-        <v>115.944</v>
+        <v>-883.496</v>
       </c>
       <c r="AI13" s="1">
-        <v>116.689</v>
+        <v>116.465</v>
       </c>
       <c r="AJ13" s="1">
-        <v>116.317</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>25.0047</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>27.5917</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>27.6021</v>
+        <v>-383.515</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>50.0768</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>27.5894</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>27.5515</v>
       </c>
       <c r="AN13" s="1">
-        <v>39.8054</v>
+        <v>39.8858</v>
       </c>
       <c r="AO13" s="1">
-        <v>42.7277</v>
+        <v>41.1157</v>
       </c>
       <c r="AP13" s="1">
-        <v>218.609</v>
+        <v>219.697</v>
       </c>
       <c r="AQ13" s="1">
-        <v>217.154</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>66.70059999999999</v>
-      </c>
-      <c r="AS13" s="2">
-        <v>67.1361</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>64.5359</v>
+        <v>217.427</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>50.3459</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>66.6007</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>64.7308</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.66508</v>
+        <v>8.672470000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>8.86088</v>
+        <v>8.85056</v>
       </c>
       <c r="AW13" s="1">
-        <v>72.75230000000001</v>
+        <v>72.8408</v>
       </c>
       <c r="AX13" s="1">
-        <v>73.3409</v>
+        <v>72.97799999999999</v>
       </c>
       <c r="AY13" s="2">
-        <v>66.6884</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>7.524579999999999</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>7.176550000000001</v>
+        <v>-49.8538</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>7.45313</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>7.9747</v>
       </c>
       <c r="BB13" s="1">
-        <v>96.6035</v>
+        <v>96.64619999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>99.8432</v>
+        <v>101.332</v>
       </c>
       <c r="BD13" s="1">
-        <v>96.9418</v>
+        <v>96.48350000000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>93.4235</v>
+        <v>92.9893</v>
       </c>
       <c r="BF13" s="2">
-        <v>66.6138</v>
-      </c>
-      <c r="BG13" s="3">
-        <v>12.7172</v>
-      </c>
-      <c r="BH13" s="3">
-        <v>11.4639</v>
+        <v>-50.1168</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>12.4738</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>11.4576</v>
       </c>
       <c r="BI13" s="1">
-        <v>65.9547</v>
+        <v>66.67619999999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>73.9025</v>
+        <v>75.5475</v>
       </c>
       <c r="BK13" s="1">
-        <v>126.282</v>
+        <v>125.812</v>
       </c>
       <c r="BL13" s="1">
-        <v>128.655</v>
+        <v>127.866</v>
       </c>
       <c r="BM13" s="2">
-        <v>66.73860000000001</v>
-      </c>
-      <c r="BN13" s="3">
-        <v>7.48438</v>
-      </c>
-      <c r="BO13" s="3">
-        <v>3.39771</v>
+        <v>-49.8006</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>7.56183</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>3.22956</v>
       </c>
       <c r="BP13" s="1">
-        <v>101.608</v>
+        <v>98.8835</v>
       </c>
       <c r="BQ13" s="1">
-        <v>227.123</v>
+        <v>230.006</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>124</v>
@@ -3980,160 +3987,160 @@
         <v>130</v>
       </c>
       <c r="R18" s="1">
-        <v>186.1096666666667</v>
+        <v>186.0541111111111</v>
       </c>
       <c r="S18" s="1">
-        <v>185.7312222222222</v>
+        <v>185.8386666666667</v>
       </c>
       <c r="T18" s="1">
-        <v>185.9203333333334</v>
+        <v>185.9462222222222</v>
       </c>
       <c r="U18" s="1">
-        <v>66.66234444444444</v>
+        <v>-50.01533333333333</v>
       </c>
       <c r="V18" s="1">
-        <v>27.31031111111111</v>
+        <v>27.08117777777778</v>
       </c>
       <c r="W18" s="1">
-        <v>25.01062222222222</v>
+        <v>25.25575555555555</v>
       </c>
       <c r="X18" s="1">
-        <v>16.94261111111111</v>
+        <v>17.08263333333333</v>
       </c>
       <c r="Y18" s="1">
-        <v>18.30867777777778</v>
+        <v>18.14204444444444</v>
       </c>
       <c r="Z18" s="1">
-        <v>3093.402222222222</v>
+        <v>8093.508888888889</v>
       </c>
       <c r="AA18" s="1">
-        <v>3093.534444444444</v>
+        <v>9093.635555555556</v>
       </c>
       <c r="AB18" s="1">
-        <v>3093.47</v>
+        <v>8593.572222222221</v>
       </c>
       <c r="AC18" s="1">
-        <v>6.96292588888889</v>
+        <v>9.387455777777779</v>
       </c>
       <c r="AD18" s="1">
-        <v>21.08943333333333</v>
+        <v>21.12624444444445</v>
       </c>
       <c r="AE18" s="1">
-        <v>20.3609</v>
+        <v>20.27228888888889</v>
       </c>
       <c r="AF18" s="1">
-        <v>29.12455555555556</v>
+        <v>29.00467777777778</v>
       </c>
       <c r="AG18" s="1">
-        <v>30.24735555555556</v>
+        <v>30.28248888888889</v>
       </c>
       <c r="AH18" s="1">
-        <v>93.40265555555555</v>
+        <v>-906.4923333333334</v>
       </c>
       <c r="AI18" s="1">
-        <v>93.53543333333334</v>
+        <v>93.6355111111111</v>
       </c>
       <c r="AJ18" s="1">
-        <v>93.46915555555556</v>
+        <v>-406.4284444444444</v>
       </c>
       <c r="AK18" s="1">
-        <v>24.99454444444445</v>
+        <v>49.99055555555556</v>
       </c>
       <c r="AL18" s="1">
-        <v>21.08943333333333</v>
+        <v>21.12624444444445</v>
       </c>
       <c r="AM18" s="1">
-        <v>20.3609</v>
+        <v>20.27228888888889</v>
       </c>
       <c r="AN18" s="1">
-        <v>29.12455555555556</v>
+        <v>29.00467777777778</v>
       </c>
       <c r="AO18" s="1">
-        <v>30.24735555555556</v>
+        <v>30.28248888888889</v>
       </c>
       <c r="AP18" s="1">
-        <v>167.0846666666667</v>
+        <v>166.8444444444445</v>
       </c>
       <c r="AQ18" s="1">
-        <v>165.6948888888889</v>
+        <v>165.8835555555555</v>
       </c>
       <c r="AR18" s="1">
-        <v>66.62917777777778</v>
+        <v>50.10183333333334</v>
       </c>
       <c r="AS18" s="1">
-        <v>59.54547777777778</v>
+        <v>59.43096666666668</v>
       </c>
       <c r="AT18" s="1">
-        <v>57.69847777777778</v>
+        <v>57.9214</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.427595555555554</v>
+        <v>7.438641111111112</v>
       </c>
       <c r="AV18" s="1">
-        <v>7.653763333333334</v>
+        <v>7.625988888888888</v>
       </c>
       <c r="AW18" s="1">
-        <v>60.97915555555556</v>
+        <v>60.97901111111111</v>
       </c>
       <c r="AX18" s="1">
-        <v>61.24601111111112</v>
+        <v>61.18088888888889</v>
       </c>
       <c r="AY18" s="1">
-        <v>66.67670000000001</v>
+        <v>-49.98094444444445</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.87418888888889</v>
+        <v>5.968932222222222</v>
       </c>
       <c r="BA18" s="1">
-        <v>5.658178888888889</v>
+        <v>5.880992222222223</v>
       </c>
       <c r="BB18" s="1">
-        <v>76.95798888888891</v>
+        <v>75.63346666666668</v>
       </c>
       <c r="BC18" s="1">
-        <v>79.83646666666667</v>
+        <v>77.60887777777778</v>
       </c>
       <c r="BD18" s="1">
-        <v>78.91915555555556</v>
+        <v>78.76357777777777</v>
       </c>
       <c r="BE18" s="1">
-        <v>76.1358</v>
+        <v>75.99886666666667</v>
       </c>
       <c r="BF18" s="1">
-        <v>66.57225555555556</v>
+        <v>-50.28807777777778</v>
       </c>
       <c r="BG18" s="1">
-        <v>9.69004</v>
+        <v>9.774546666666668</v>
       </c>
       <c r="BH18" s="1">
-        <v>8.631936666666668</v>
+        <v>8.541372222222222</v>
       </c>
       <c r="BI18" s="1">
-        <v>47.20054444444444</v>
+        <v>46.78942222222222</v>
       </c>
       <c r="BJ18" s="1">
-        <v>53.22995555555556</v>
+        <v>54.00542222222222</v>
       </c>
       <c r="BK18" s="1">
-        <v>99.38888888888891</v>
+        <v>99.4072888888889</v>
       </c>
       <c r="BL18" s="1">
-        <v>100.4348333333333</v>
+        <v>100.1792888888889</v>
       </c>
       <c r="BM18" s="1">
-        <v>66.69763333333334</v>
+        <v>-49.94402222222223</v>
       </c>
       <c r="BN18" s="1">
-        <v>5.858623333333333</v>
+        <v>5.900874444444445</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.599023333333333</v>
+        <v>2.530975555555556</v>
       </c>
       <c r="BP18" s="1">
-        <v>77.39627777777777</v>
+        <v>76.56473333333332</v>
       </c>
       <c r="BQ18" s="1">
-        <v>174.8544444444445</v>
+        <v>178.4981111111111</v>
       </c>
       <c r="BR18" s="1" t="s">
         <v>124</v>
@@ -4162,160 +4169,160 @@
         <v>131</v>
       </c>
       <c r="R19" s="1">
-        <v>31.22430394918534</v>
+        <v>31.62325460952376</v>
       </c>
       <c r="S19" s="1">
-        <v>31.46618870321243</v>
+        <v>31.2561725743892</v>
       </c>
       <c r="T19" s="1">
-        <v>31.34150336392802</v>
+        <v>31.43259679864476</v>
       </c>
       <c r="U19" s="1">
-        <v>0.03701117282092407</v>
+        <v>0.1569848683437002</v>
       </c>
       <c r="V19" s="1">
-        <v>6.179438317237516</v>
+        <v>6.105474223783435</v>
       </c>
       <c r="W19" s="1">
-        <v>5.071167868729994</v>
+        <v>5.165812370041051</v>
       </c>
       <c r="X19" s="1">
-        <v>3.92106920323312</v>
+        <v>3.952776868368756</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.827081442032638</v>
+        <v>3.81092560879932</v>
       </c>
       <c r="Z19" s="1">
-        <v>15.38396407358267</v>
+        <v>15.50827624524299</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.52551098540786</v>
+        <v>15.27979501833912</v>
       </c>
       <c r="AB19" s="1">
-        <v>15.45371799923881</v>
+        <v>15.39008900254224</v>
       </c>
       <c r="AC19" s="1">
-        <v>18.04146322497839</v>
+        <v>16.48261201296497</v>
       </c>
       <c r="AD19" s="1">
-        <v>4.393829731440317</v>
+        <v>4.313418256534193</v>
       </c>
       <c r="AE19" s="1">
-        <v>4.37573308854896</v>
+        <v>4.257213496967873</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.465890950744034</v>
+        <v>6.217930547444183</v>
       </c>
       <c r="AG19" s="1">
-        <v>6.900641256049423</v>
+        <v>6.577151298657504</v>
       </c>
       <c r="AH19" s="1">
-        <v>15.38425549790081</v>
+        <v>15.50924752096849</v>
       </c>
       <c r="AI19" s="1">
-        <v>15.52419949992054</v>
+        <v>15.27882622574598</v>
       </c>
       <c r="AJ19" s="1">
-        <v>15.45348663830421</v>
+        <v>15.39130279022042</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.009854960523187604</v>
+        <v>0.05761192220579715</v>
       </c>
       <c r="AL19" s="1">
-        <v>4.393829731440317</v>
+        <v>4.313418256534193</v>
       </c>
       <c r="AM19" s="1">
-        <v>4.37573308854896</v>
+        <v>4.257213496967873</v>
       </c>
       <c r="AN19" s="1">
-        <v>6.465890950744034</v>
+        <v>6.217930547444183</v>
       </c>
       <c r="AO19" s="1">
-        <v>6.900641256049423</v>
+        <v>6.577151298657504</v>
       </c>
       <c r="AP19" s="1">
-        <v>33.87166978464451</v>
+        <v>34.06071992489984</v>
       </c>
       <c r="AQ19" s="1">
-        <v>33.33415238808539</v>
+        <v>33.21436821655188</v>
       </c>
       <c r="AR19" s="1">
-        <v>0.03779664234875042</v>
+        <v>0.174210683433085</v>
       </c>
       <c r="AS19" s="1">
-        <v>4.568349165673106</v>
+        <v>4.406283153508055</v>
       </c>
       <c r="AT19" s="1">
-        <v>3.816704453314485</v>
+        <v>3.945448858283851</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.7453336578578766</v>
+        <v>0.728774389146973</v>
       </c>
       <c r="AV19" s="1">
-        <v>0.7087631468817898</v>
+        <v>0.714211525692563</v>
       </c>
       <c r="AW19" s="1">
-        <v>7.662959141525639</v>
+        <v>7.72814686101604</v>
       </c>
       <c r="AX19" s="1">
-        <v>7.808830945288723</v>
+        <v>7.550336097514609</v>
       </c>
       <c r="AY19" s="1">
-        <v>0.009038313510335728</v>
+        <v>0.06193970385447715</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.9133788264636412</v>
+        <v>0.9106075844155161</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.8552313095095575</v>
+        <v>1.107742945340036</v>
       </c>
       <c r="BB19" s="1">
-        <v>13.67236823381332</v>
+        <v>13.05896198554847</v>
       </c>
       <c r="BC19" s="1">
-        <v>14.10206421139197</v>
+        <v>15.67211645777853</v>
       </c>
       <c r="BD19" s="1">
-        <v>11.98475312508087</v>
+        <v>12.00481546572761</v>
       </c>
       <c r="BE19" s="1">
-        <v>11.23693875859633</v>
+        <v>11.01896212404377</v>
       </c>
       <c r="BF19" s="1">
-        <v>0.03057824612044176</v>
+        <v>0.129543753035866</v>
       </c>
       <c r="BG19" s="1">
-        <v>1.810101496853453</v>
+        <v>1.804654100430329</v>
       </c>
       <c r="BH19" s="1">
-        <v>1.739290706504618</v>
+        <v>1.797810234812079</v>
       </c>
       <c r="BI19" s="1">
-        <v>9.94412077875511</v>
+        <v>9.938041368150047</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.58408213954833</v>
+        <v>12.18562586326637</v>
       </c>
       <c r="BK19" s="1">
-        <v>16.9244693879368</v>
+        <v>16.86059870173617</v>
       </c>
       <c r="BL19" s="1">
-        <v>17.5063831693852</v>
+        <v>17.19706460458648</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.03241789629202005</v>
+        <v>0.09953384435878737</v>
       </c>
       <c r="BN19" s="1">
-        <v>1.007397348131422</v>
+        <v>0.9506676345613483</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.4706249221100718</v>
+        <v>0.4127593510377879</v>
       </c>
       <c r="BP19" s="1">
-        <v>14.5756042924682</v>
+        <v>13.67091076897707</v>
       </c>
       <c r="BQ19" s="1">
-        <v>33.36904557657228</v>
+        <v>31.44713858894158</v>
       </c>
       <c r="BR19" s="1" t="s">
         <v>124</v>
@@ -4344,160 +4351,160 @@
         <v>132</v>
       </c>
       <c r="R20" s="1">
-        <v>16.77736815525542</v>
+        <v>16.99680508034483</v>
       </c>
       <c r="S20" s="1">
-        <v>16.94178734556757</v>
+        <v>16.81898236519985</v>
       </c>
       <c r="T20" s="1">
-        <v>16.85749094895198</v>
+        <v>16.90413304610191</v>
       </c>
       <c r="U20" s="1">
-        <v>0.05552035880131506</v>
+        <v>0.3138734821528735</v>
       </c>
       <c r="V20" s="1">
-        <v>22.62675914637762</v>
+        <v>22.54508379910069</v>
       </c>
       <c r="W20" s="1">
-        <v>20.27605640384349</v>
+        <v>20.45400050961737</v>
       </c>
       <c r="X20" s="1">
-        <v>23.14324030409722</v>
+        <v>23.13915419969651</v>
       </c>
       <c r="Y20" s="1">
-        <v>20.90310118777541</v>
+        <v>21.006042733879</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.4973153495225467</v>
+        <v>0.191613754406737</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.5018696660478278</v>
+        <v>0.1680273519319154</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.4995593297894859</v>
+        <v>0.1790883768073168</v>
       </c>
       <c r="AC20" s="1">
-        <v>259.1075003938806</v>
+        <v>175.5812480308352</v>
       </c>
       <c r="AD20" s="1">
-        <v>20.83427118212589</v>
+        <v>20.41734520244316</v>
       </c>
       <c r="AE20" s="1">
-        <v>21.49086282310192</v>
+        <v>21.00016194669179</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.20082273327826</v>
+        <v>21.43768186319281</v>
       </c>
       <c r="AG20" s="1">
-        <v>22.81403160476281</v>
+        <v>21.7193220900372</v>
       </c>
       <c r="AH20" s="1">
-        <v>16.47089732769998</v>
+        <v>1.710907743029467</v>
       </c>
       <c r="AI20" s="1">
-        <v>16.59713217406795</v>
+        <v>16.3173416201206</v>
       </c>
       <c r="AJ20" s="1">
-        <v>16.53324730115816</v>
+        <v>3.786964962863048</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.03942844625591115</v>
+        <v>0.1152456130273884</v>
       </c>
       <c r="AL20" s="1">
-        <v>20.83427118212589</v>
+        <v>20.41734520244316</v>
       </c>
       <c r="AM20" s="1">
-        <v>21.49086282310192</v>
+        <v>21.00016194669179</v>
       </c>
       <c r="AN20" s="1">
-        <v>22.20082273327826</v>
+        <v>21.43768186319281</v>
       </c>
       <c r="AO20" s="1">
-        <v>22.81403160476281</v>
+        <v>21.7193220900372</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.27215929527416</v>
+        <v>20.41465632153027</v>
       </c>
       <c r="AQ20" s="1">
-        <v>20.11779156956284</v>
+        <v>20.02270092735512</v>
       </c>
       <c r="AR20" s="1">
-        <v>0.05672686292904607</v>
+        <v>0.3477131910004989</v>
       </c>
       <c r="AS20" s="1">
-        <v>7.672033773449714</v>
+        <v>7.414119945619912</v>
       </c>
       <c r="AT20" s="1">
-        <v>6.614913599652131</v>
+        <v>6.811729098888927</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.03465592981023</v>
+        <v>9.797144105506064</v>
       </c>
       <c r="AV20" s="1">
-        <v>9.260322223382786</v>
+        <v>9.365493919525289</v>
       </c>
       <c r="AW20" s="1">
-        <v>12.56652223487129</v>
+        <v>12.67345389864461</v>
       </c>
       <c r="AX20" s="1">
-        <v>12.74994208377444</v>
+        <v>12.34100424926293</v>
       </c>
       <c r="AY20" s="1">
-        <v>0.01355543017326251</v>
+        <v>0.1239266375274787</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.54902036247609</v>
+        <v>15.25578697351163</v>
       </c>
       <c r="BA20" s="1">
-        <v>15.11495706134349</v>
+        <v>18.83598725320977</v>
       </c>
       <c r="BB20" s="1">
-        <v>17.76601549912295</v>
+        <v>17.26611586257468</v>
       </c>
       <c r="BC20" s="1">
-        <v>17.66368778602256</v>
+        <v>20.19371611409387</v>
       </c>
       <c r="BD20" s="1">
-        <v>15.18611424655215</v>
+        <v>15.24158221912899</v>
       </c>
       <c r="BE20" s="1">
-        <v>14.7590736008505</v>
+        <v>14.49885058467157</v>
       </c>
       <c r="BF20" s="1">
-        <v>0.04593241713873394</v>
+        <v>0.2576033102882115</v>
       </c>
       <c r="BG20" s="1">
-        <v>18.68002089623421</v>
+        <v>18.46279077662591</v>
       </c>
       <c r="BH20" s="1">
-        <v>20.14948410385253</v>
+        <v>21.04826002237308</v>
       </c>
       <c r="BI20" s="1">
-        <v>21.06780948355257</v>
+        <v>21.23993179687109</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.76233667424001</v>
+        <v>22.56370816457057</v>
       </c>
       <c r="BK20" s="1">
-        <v>17.02853264297721</v>
+        <v>16.96112919906896</v>
       </c>
       <c r="BL20" s="1">
-        <v>17.43058915753187</v>
+        <v>17.16628735871756</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.04860426775565756</v>
+        <v>0.1992908058464312</v>
       </c>
       <c r="BN20" s="1">
-        <v>17.19512060793729</v>
+        <v>16.11062298497781</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.10776056044406</v>
+        <v>16.30831045095519</v>
       </c>
       <c r="BP20" s="1">
-        <v>18.83243575914342</v>
+        <v>17.85536261121579</v>
       </c>
       <c r="BQ20" s="1">
-        <v>19.08389900101993</v>
+        <v>17.6176310176002</v>
       </c>
       <c r="BR20" s="1" t="s">
         <v>124</v>
